--- a/AAII_Financials/Quarterly/LZB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LZB_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>LZB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43855</v>
+      </c>
+      <c r="E7" s="2">
         <v>43764</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43673</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43582</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43491</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43400</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43309</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43218</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43127</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43036</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42945</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42854</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42763</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>475900</v>
+      </c>
+      <c r="E8" s="3">
         <v>447200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>413600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>453800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>467600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>439300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>384700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>420000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>413600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>393200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>357100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>412700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>390000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>376600</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>276200</v>
+      </c>
+      <c r="E9" s="3">
         <v>264800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>245900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>264000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>277700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>264900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>236200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>253800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>251100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>238300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>218000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>243800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>233200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>227200</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>199700</v>
+      </c>
+      <c r="E10" s="3">
         <v>182400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>167700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>189800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>189900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>174400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>148500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>166200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>162500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>154900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>139100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>168900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>156800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>149400</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -980,11 +1000,11 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>32700</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -992,11 +1012,11 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>-4100</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>423500</v>
+      </c>
+      <c r="E17" s="3">
         <v>417600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>390200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>449300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>426700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>410800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>361500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>374300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>380500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>358900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>340800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>369300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>356400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>342700</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>52400</v>
+      </c>
+      <c r="E18" s="3">
         <v>29600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>23400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>40900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>28500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>23200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>45700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>33100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>34300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>16300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>43400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>33600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1211,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E20" s="3">
         <v>1900</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E21" s="3">
         <v>39100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>30700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>12800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>48100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>34900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>32200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>53000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>40200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>41800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>26100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>50600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>41300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>40300</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1278,16 +1318,16 @@
         <v>300</v>
       </c>
       <c r="F22" s="3">
+        <v>300</v>
+      </c>
+      <c r="G22" s="3">
         <v>400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>500</v>
       </c>
       <c r="H22" s="3">
         <v>500</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -1296,110 +1336,119 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>200</v>
       </c>
       <c r="N22" s="3">
+        <v>200</v>
+      </c>
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>46900</v>
+      </c>
+      <c r="E23" s="3">
         <v>31200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>23100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>39900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>26400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>24600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>44800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>32300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>33600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>18200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>42500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>33500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>33000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E24" s="3">
         <v>8300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>10700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>6000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>14400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>10400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>14200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>9800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E26" s="3">
         <v>22900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>18000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>29200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>20300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>19000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>30400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>21800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>23200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>11700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>28200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>23600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E27" s="3">
         <v>22600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>18000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>28600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>19900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>18200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>30000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>21500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>22800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>11600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>27900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>23200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1597,29 +1658,32 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>4000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-9500</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1900</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E33" s="3">
         <v>22600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>18000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>28600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>19900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>18200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>34000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>12000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>22800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>11600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>27900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>23200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E35" s="3">
         <v>22600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>18000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>28600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>19900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>18200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>34000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>12000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>22800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>11600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>27900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>23200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43855</v>
+      </c>
+      <c r="E38" s="2">
         <v>43764</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43673</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43582</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43491</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43400</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43309</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43218</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43127</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43036</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42945</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42854</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42763</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,360 +2053,385 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>166300</v>
+      </c>
+      <c r="E41" s="3">
         <v>117600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>111600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>129800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>101600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>93900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>134200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>134500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>135300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>122300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>119600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>141900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>110300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>105600</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E42" s="3">
         <v>23300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>29500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>21400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>18000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>16300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>15500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>16300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>16100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>15200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>16700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>16900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>15700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>153700</v>
+      </c>
+      <c r="E43" s="3">
         <v>155100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>134400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>143300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>149500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>150500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>139000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>154100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>146500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>145200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>134900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>150800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>143200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>198600</v>
+      </c>
+      <c r="E44" s="3">
         <v>205100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>197700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>196900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>219200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>214900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>195000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>184800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>186300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>180100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>178500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>175100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>193700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>186700</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>62300</v>
+      </c>
+      <c r="E45" s="3">
         <v>60500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>58100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>49800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>59100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>61800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>42200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>28500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>29500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>33400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>39100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>32700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>35200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>32900</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>603300</v>
+      </c>
+      <c r="E46" s="3">
         <v>561600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>531300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>541100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>547400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>537400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>525900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>518200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>513700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>496100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>488900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>517400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>498100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>485700</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E47" s="3">
         <v>36200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>33000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>36100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>39700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>38000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>41300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>43100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>44900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>45200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>41600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>36800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>34000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>35200</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>531000</v>
+      </c>
+      <c r="E48" s="3">
         <v>512700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>517200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>200500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>195700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>195300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>188100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>180900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>174900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>171500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>171100</v>
-      </c>
-      <c r="N48" s="3">
-        <v>169100</v>
       </c>
       <c r="O48" s="3">
         <v>169100</v>
       </c>
       <c r="P48" s="3">
+        <v>169100</v>
+      </c>
+      <c r="Q48" s="3">
         <v>170600</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2328,43 +2439,46 @@
         <v>214600</v>
       </c>
       <c r="E49" s="3">
+        <v>214600</v>
+      </c>
+      <c r="F49" s="3">
         <v>214300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>215800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>215000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>212600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>92400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>93400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>94300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>92600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>93200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>92700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>92600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>65400</v>
+      </c>
+      <c r="E52" s="3">
         <v>67200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>66400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>66300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>63700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>68800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>58900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>57300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>65700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>76100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>73800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>72800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>70900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1442600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1392300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1362200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1059800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1061500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1052100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>906600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>893000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>893500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>881500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>868500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>888900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>864600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>823000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,72 +2749,76 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E57" s="3">
         <v>71900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>62900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>65400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>72400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>75100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>62900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>62400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>66700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>53400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>47400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>51300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>51000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>46900</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
       </c>
       <c r="F58" s="3">
+        <v>100</v>
+      </c>
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>20200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>35200</v>
-      </c>
-      <c r="I58" s="3">
-        <v>200</v>
       </c>
       <c r="J58" s="3">
         <v>200</v>
@@ -2705,98 +2839,107 @@
         <v>200</v>
       </c>
       <c r="P58" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>260400</v>
+      </c>
+      <c r="E59" s="3">
         <v>245700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>232800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>173100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>176300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>176100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>127700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>118700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>131200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>133300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>126900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>147200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>138900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>116500</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>328500</v>
+      </c>
+      <c r="E60" s="3">
         <v>317600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>295900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>238600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>268900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>286400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>190800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>181300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>198100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>186900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>174500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>198700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>190100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>163600</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2813,78 +2956,84 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>100</v>
       </c>
       <c r="J61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K61" s="3">
         <v>200</v>
       </c>
       <c r="L61" s="3">
+        <v>200</v>
+      </c>
+      <c r="M61" s="3">
         <v>300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>200</v>
-      </c>
-      <c r="N61" s="3">
-        <v>300</v>
       </c>
       <c r="O61" s="3">
         <v>300</v>
       </c>
       <c r="P61" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q61" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>384600</v>
+      </c>
+      <c r="E62" s="3">
         <v>364000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>368200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>124200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>120700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>116400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>89000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>86200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>92300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>90000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>90800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>88800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>87200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>728700</v>
+      </c>
+      <c r="E66" s="3">
         <v>697100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>678900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>377300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>404200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>416300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>292400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>280800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>303600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>289300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>277200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>298900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>288400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>261300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>353400</v>
+      </c>
+      <c r="E72" s="3">
         <v>337000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>329100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>325800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>330500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>309500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>296300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>291600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>271900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>279300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>280300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>284700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>272600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>258900</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>713900</v>
+      </c>
+      <c r="E76" s="3">
         <v>695200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>683300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>682500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>657300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>635800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>614200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>612200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>589900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>592300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>591300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>589900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>576200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>561700</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43855</v>
+      </c>
+      <c r="E80" s="2">
         <v>43764</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43673</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43582</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43491</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43400</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43309</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43218</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43127</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43036</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42945</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42854</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42763</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E81" s="3">
         <v>22600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>18000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>28600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>19900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>18200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>34000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>12000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>22800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>11600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>27900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>23200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3826,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E83" s="3">
         <v>7600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8100</v>
-      </c>
-      <c r="M83" s="3">
-        <v>7800</v>
       </c>
       <c r="N83" s="3">
         <v>7800</v>
       </c>
       <c r="O83" s="3">
+        <v>7800</v>
+      </c>
+      <c r="P83" s="3">
         <v>7300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>66100</v>
+      </c>
+      <c r="E89" s="3">
         <v>34400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>19300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>59300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>45400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>13900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>32200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>24600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>40000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>31700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>19500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>55000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>38900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-12300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-12700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-15900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-12200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-9100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-9600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-10600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-14000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-18300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-12300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-87000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-15200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-10000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-29100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-23900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-19700</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,16 +4381,17 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-6000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-6100</v>
       </c>
       <c r="F96" s="3">
         <v>-6100</v>
@@ -4166,34 +4400,37 @@
         <v>-6100</v>
       </c>
       <c r="H96" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="I96" s="3">
         <v>-5700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-5600</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-5700</v>
       </c>
       <c r="K96" s="3">
         <v>-5700</v>
       </c>
       <c r="L96" s="3">
-        <v>-5300</v>
+        <v>-5700</v>
       </c>
       <c r="M96" s="3">
         <v>-5300</v>
       </c>
       <c r="N96" s="3">
-        <v>-5400</v>
+        <v>-5300</v>
       </c>
       <c r="O96" s="3">
         <v>-5400</v>
       </c>
       <c r="P96" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4567,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-15000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-19900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-22500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-26300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>31700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-15600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-14800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-20300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-24600</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-16500</v>
       </c>
       <c r="N100" s="3">
         <v>-16500</v>
       </c>
       <c r="O100" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="P100" s="3">
         <v>-10300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1300</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>48700</v>
+      </c>
+      <c r="E102" s="3">
         <v>5900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-18200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>28200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>7700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-40700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>12900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-25300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>31500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-11600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LZB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LZB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>LZB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,244 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44037</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43946</v>
+      </c>
+      <c r="F7" s="2">
         <v>43855</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43764</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43673</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43582</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43491</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43400</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43309</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43218</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43127</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43036</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42945</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42854</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42763</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>285500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>367300</v>
+      </c>
+      <c r="F8" s="3">
         <v>475900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>447200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>413600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>453800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>467600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>439300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>384700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>420000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>413600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>393200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>357100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>412700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>390000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>376600</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>169100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>195600</v>
+      </c>
+      <c r="F9" s="3">
         <v>276200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>264800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>245900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>264000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>277700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>264900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>236200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>253800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>251100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>238300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>218000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>243800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>233200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>227200</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>116400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>171700</v>
+      </c>
+      <c r="F10" s="3">
         <v>199700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>182400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>167700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>189800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>189900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>174400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>148500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>166200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>162500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>154900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>139100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>168900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>156800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>149400</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,40 +1022,46 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="3">
+        <v>25000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3">
-        <v>32700</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>32700</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>-4100</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>-4100</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1036,8 +1075,14 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>423500</v>
+        <v>281100</v>
       </c>
       <c r="E17" s="3">
+        <v>352000</v>
+      </c>
+      <c r="F17" s="3">
+        <v>429500</v>
+      </c>
+      <c r="G17" s="3">
         <v>417600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>390200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>449300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>426700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>410800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>361500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>374300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>380500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>358900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>340800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>369300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>356400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>342700</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>52400</v>
+        <v>4400</v>
       </c>
       <c r="E18" s="3">
+        <v>15300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>46400</v>
+      </c>
+      <c r="G18" s="3">
         <v>29600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>23400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>4500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>40900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>28500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>23200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>45700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>33100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>34300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>16300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>43400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>33600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,243 +1277,275 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5200</v>
+        <v>1900</v>
       </c>
       <c r="E20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F20" s="3">
+        <v>800</v>
+      </c>
+      <c r="G20" s="3">
         <v>1900</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>2100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>22600</v>
+      </c>
+      <c r="F21" s="3">
         <v>55300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>39100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>30700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>12800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>48100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>34900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>32200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>53000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>40200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>41800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>26100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>50600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>41300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>40300</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F22" s="3">
         <v>300</v>
       </c>
       <c r="G22" s="3">
+        <v>300</v>
+      </c>
+      <c r="H22" s="3">
+        <v>300</v>
+      </c>
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>500</v>
-      </c>
-      <c r="J22" s="3">
-        <v>100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
       </c>
       <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F23" s="3">
         <v>46900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>31200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>23100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>4500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>39900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>26400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>24600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>44800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>32300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>33600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>18200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>42500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>33500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>33000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F24" s="3">
         <v>12200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>8300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>5100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>2800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>10700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>6000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>5600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>14400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>10500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>10400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>6500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>14200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>9800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F26" s="3">
         <v>34700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>22900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>18000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>29200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>20300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>19000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>30400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>21800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>23200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>11700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>28200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>23600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F27" s="3">
         <v>34500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>22600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>18000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>1500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>28600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>19900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>18200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>30000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>21500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>22800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>11600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>27900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>23200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1661,29 +1782,35 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>4000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-9500</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1909,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5200</v>
+        <v>-1900</v>
       </c>
       <c r="E32" s="3">
+        <v>900</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1900</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-2100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F33" s="3">
         <v>34500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>22600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>18000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>28600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>19900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>18200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>34000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>12000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>22800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>11600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>27900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>23200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F35" s="3">
         <v>34500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>22600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>18000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>28600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>19900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>18200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>34000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>12000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>22800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>11600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>27900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>23200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44037</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43946</v>
+      </c>
+      <c r="F38" s="2">
         <v>43855</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43764</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43673</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43582</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43491</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43400</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43309</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43218</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43127</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43036</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42945</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42854</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42763</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,431 +2225,487 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>334200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>261600</v>
+      </c>
+      <c r="F41" s="3">
         <v>166300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>117600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>111600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>129800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>101600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>93900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>134200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>134500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>135300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>122300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>119600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>141900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>110300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>105600</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E42" s="3">
+        <v>22000</v>
+      </c>
+      <c r="F42" s="3">
         <v>22400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>23300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>29500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>21400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>18000</v>
-      </c>
-      <c r="I42" s="3">
-        <v>16300</v>
-      </c>
-      <c r="J42" s="3">
-        <v>15500</v>
       </c>
       <c r="K42" s="3">
         <v>16300</v>
       </c>
       <c r="L42" s="3">
+        <v>15500</v>
+      </c>
+      <c r="M42" s="3">
+        <v>16300</v>
+      </c>
+      <c r="N42" s="3">
         <v>16100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>15200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>16700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>16900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>15700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>97400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>99400</v>
+      </c>
+      <c r="F43" s="3">
         <v>153700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>155100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>134400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>143300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>149500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>150500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>139000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>154100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>146500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>145200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>134900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>150800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>143200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>180400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>181600</v>
+      </c>
+      <c r="F44" s="3">
         <v>198600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>205100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>197700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>196900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>219200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>214900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>195000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>184800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>186300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>180100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>178500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>175100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>193700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>186700</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>80200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>61800</v>
+      </c>
+      <c r="F45" s="3">
         <v>62300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>60500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>58100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>49800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>59100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>61800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>42200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>28500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>29500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>33400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>39100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>32700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>35200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>32900</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>704000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>626300</v>
+      </c>
+      <c r="F46" s="3">
         <v>603300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>561600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>531300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>541100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>547400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>537400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>525900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>518200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>513700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>496100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>488900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>517400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>498100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>485700</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>26100</v>
+      </c>
+      <c r="F47" s="3">
         <v>28400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>36200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>33000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>36100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>39700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>38000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>41300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>43100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>44900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>45200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>41600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>36800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>34000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>35200</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>523100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>533400</v>
+      </c>
+      <c r="F48" s="3">
         <v>531000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>512700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>517200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>200500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>195700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>195300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>188100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>180900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>174900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>171500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>171100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>169100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>169100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>170600</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>190200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>189700</v>
+      </c>
+      <c r="F49" s="3">
         <v>214600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>214600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>214300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>215800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>215000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>212600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>92400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>93400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>94300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>92600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>93200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>92700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>92600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2804,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>60500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>59400</v>
+      </c>
+      <c r="F52" s="3">
         <v>65400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>67200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>66400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>66300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>63700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>68800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>58900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>57300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>65700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>76100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>73800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>72800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>70900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1503700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1434900</v>
+      </c>
+      <c r="F54" s="3">
         <v>1442600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1392300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1362200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1059800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1061500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1052100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>906600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>893000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>893500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>881500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>868500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>888900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>864600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>823000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,81 +3009,89 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>61900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>55500</v>
+      </c>
+      <c r="F57" s="3">
         <v>68000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>71900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>62900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>65400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>72400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>75100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>62900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>62400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>66700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>53400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>47400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>51300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>51000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>46900</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="E58" s="3">
+        <v>75000</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>20200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>35200</v>
-      </c>
-      <c r="J58" s="3">
-        <v>200</v>
-      </c>
-      <c r="K58" s="3">
-        <v>200</v>
       </c>
       <c r="L58" s="3">
         <v>200</v>
@@ -2842,104 +3109,122 @@
         <v>200</v>
       </c>
       <c r="Q58" s="3">
+        <v>200</v>
+      </c>
+      <c r="R58" s="3">
+        <v>200</v>
+      </c>
+      <c r="S58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>312600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>219600</v>
+      </c>
+      <c r="F59" s="3">
         <v>260400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>245700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>232800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>173100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>176300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>176100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>127700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>118700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>131200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>133300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>126900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>147200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>138900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>116500</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>424500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>350200</v>
+      </c>
+      <c r="F60" s="3">
         <v>328500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>317600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>295900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>238600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>268900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>286400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>190800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>181300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>198100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>186900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>174500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>198700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>190100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>163600</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2959,19 +3244,19 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>200</v>
-      </c>
-      <c r="L61" s="3">
-        <v>200</v>
-      </c>
-      <c r="M61" s="3">
-        <v>300</v>
       </c>
       <c r="N61" s="3">
         <v>200</v>
@@ -2980,60 +3265,72 @@
         <v>300</v>
       </c>
       <c r="P61" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q61" s="3">
         <v>300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
+        <v>300</v>
+      </c>
+      <c r="S61" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>364200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>368400</v>
+      </c>
+      <c r="F62" s="3">
         <v>384600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>364000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>368200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>124200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>120700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>116400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>89000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>86200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>92300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>90000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>90800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>88800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>87200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>796200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>734100</v>
+      </c>
+      <c r="F66" s="3">
         <v>728700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>697100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>678900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>377300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>404200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>416300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>292400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>280800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>303600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>289300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>277200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>298900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>288400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>261300</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>346800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>343600</v>
+      </c>
+      <c r="F72" s="3">
         <v>353400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>337000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>329100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>325800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>330500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>309500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>296300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>291600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>271900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>279300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>280300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>284700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>272600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>258900</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>707600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>700800</v>
+      </c>
+      <c r="F76" s="3">
         <v>713900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>695200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>683300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>682500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>657300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>635800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>614200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>612200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>589900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>592300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>591300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>589900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>576200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>561700</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44037</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43946</v>
+      </c>
+      <c r="F80" s="2">
         <v>43855</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43764</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43673</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43582</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43491</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43400</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43309</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43218</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43127</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43036</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42945</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42854</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42763</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F81" s="3">
         <v>34500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>22600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>18000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>28600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>19900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>18200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>34000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>12000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>22800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>11600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>27900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>23200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3836,28 +4233,28 @@
         <v>8100</v>
       </c>
       <c r="E83" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F83" s="3">
+        <v>8100</v>
+      </c>
+      <c r="G83" s="3">
         <v>7600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>7300</v>
-      </c>
-      <c r="G83" s="3">
-        <v>8000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>7600</v>
       </c>
       <c r="I83" s="3">
         <v>8000</v>
       </c>
       <c r="J83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="L83" s="3">
         <v>7500</v>
-      </c>
-      <c r="K83" s="3">
-        <v>8100</v>
-      </c>
-      <c r="L83" s="3">
-        <v>7800</v>
       </c>
       <c r="M83" s="3">
         <v>8100</v>
@@ -3866,16 +4263,22 @@
         <v>7800</v>
       </c>
       <c r="O83" s="3">
+        <v>8100</v>
+      </c>
+      <c r="P83" s="3">
         <v>7800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
+        <v>7800</v>
+      </c>
+      <c r="R83" s="3">
         <v>7300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>106300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>44500</v>
+      </c>
+      <c r="F89" s="3">
         <v>66100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>34400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>19300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>59300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>45400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>13900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>32200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>24600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>40000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>31700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>19500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>55000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>38900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4614,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-12500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-10700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-12300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-12700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-8800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-11100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-15900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-12200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-7800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-7200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-9100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-9600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-10600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4769,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="F94" s="3">
         <v>1200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-14000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-18300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-8200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-12300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-87000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-15200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-10000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-8100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-8000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-29100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-7200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-23900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-19700</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,55 +4847,63 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-6500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="G96" s="3">
         <v>-6000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-6100</v>
       </c>
       <c r="H96" s="3">
         <v>-6100</v>
       </c>
       <c r="I96" s="3">
-        <v>-5700</v>
+        <v>-6100</v>
       </c>
       <c r="J96" s="3">
-        <v>-5600</v>
+        <v>-6100</v>
       </c>
       <c r="K96" s="3">
         <v>-5700</v>
       </c>
       <c r="L96" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="M96" s="3">
         <v>-5700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="O96" s="3">
         <v>-5300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-5300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-5400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +5055,169 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>62700</v>
+      </c>
+      <c r="F100" s="3">
         <v>-18500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-15000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-19900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-22500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-26300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>31700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-15600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-14800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-20300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-24600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-16500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-16500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-1600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>1300</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>300</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>73200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>95300</v>
+      </c>
+      <c r="F102" s="3">
         <v>48700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>5900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-18200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>28200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>7700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-40700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>12900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-25300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>31500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>4800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-11600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LZB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LZB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>LZB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44128</v>
+      </c>
+      <c r="E7" s="2">
         <v>44037</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43946</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43855</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43764</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43673</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43582</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43491</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43400</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43309</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43218</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43127</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43036</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42945</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42854</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42763</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>459100</v>
+      </c>
+      <c r="E8" s="3">
         <v>285500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>367300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>475900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>447200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>413600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>453800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>467600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>439300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>384700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>420000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>413600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>393200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>357100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>412700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>390000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>376600</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>258600</v>
+      </c>
+      <c r="E9" s="3">
         <v>169100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>195600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>276200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>264800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>245900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>264000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>277700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>264900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>236200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>253800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>251100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>238300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>218000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>243800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>233200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>227200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>200500</v>
+      </c>
+      <c r="E10" s="3">
         <v>116400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>171700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>199700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>182400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>167700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>189800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>189900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>174400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>148500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>166200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>162500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>154900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>139100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>168900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>156800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>149400</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,31 +1045,34 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>25000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>6000</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>32700</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1060,11 +1080,11 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>-4100</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>411200</v>
+      </c>
+      <c r="E17" s="3">
         <v>281100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>352000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>429500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>417600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>390200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>449300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>426700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>410800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>361500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>374300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>380500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>358900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>340800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>369300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>356400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>342700</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E18" s="3">
         <v>4400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>15300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>46400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>29600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>23400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>40900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>28500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>23200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>45700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>33100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>34300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>16300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>43400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>33600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,125 +1312,132 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>1900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1900</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>56300</v>
+      </c>
+      <c r="E21" s="3">
         <v>14400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>22600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>55300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>39100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>30700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>12800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>48100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>34900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>32200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>53000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>40200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>41800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>26100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>50600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>41300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>40300</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>400</v>
-      </c>
-      <c r="F22" s="3">
-        <v>300</v>
       </c>
       <c r="G22" s="3">
         <v>300</v>
@@ -1406,16 +1446,16 @@
         <v>300</v>
       </c>
       <c r="I22" s="3">
+        <v>300</v>
+      </c>
+      <c r="J22" s="3">
         <v>400</v>
-      </c>
-      <c r="J22" s="3">
-        <v>500</v>
       </c>
       <c r="K22" s="3">
         <v>500</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
@@ -1424,128 +1464,137 @@
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>200</v>
       </c>
       <c r="Q22" s="3">
+        <v>200</v>
+      </c>
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E23" s="3">
         <v>5800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>14000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>46900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>31200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>23100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>39900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>26400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>24600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>44800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>32300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>33600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>18200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>42500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>33500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>33000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E24" s="3">
         <v>1200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>10600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>12200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>8300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>10700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>14400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>10500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>10400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>6500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>14200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>9800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E26" s="3">
         <v>4700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>34700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>22900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>18000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>29200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>20300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>19000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>30400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>21800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>23200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>11700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>28200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>23600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E27" s="3">
         <v>4800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>34500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>22600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>18000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>28600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>19900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>18200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>30000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>21500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>22800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>11600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>27900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>23200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1788,29 +1849,32 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>4000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-9500</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1900</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E33" s="3">
         <v>4800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>34500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>22600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>18000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>28600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>19900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>18200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>34000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>12000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>22800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>11600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>27900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>23200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E35" s="3">
         <v>4800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>34500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>22600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>18000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>28600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>19900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>18200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>34000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>12000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>22800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>11600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>27900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>23200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44128</v>
+      </c>
+      <c r="E38" s="2">
         <v>44037</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43946</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43855</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43764</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43673</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43582</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43491</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43400</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43309</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43218</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43127</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43036</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42945</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42854</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42763</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,485 +2313,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>350900</v>
+      </c>
+      <c r="E41" s="3">
         <v>334200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>261600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>166300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>117600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>111600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>129800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>101600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>93900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>134200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>134500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>135300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>122300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>119600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>141900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>110300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>105600</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E42" s="3">
         <v>11800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>22000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>22400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>23300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>29500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>21400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>18000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>16300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>15500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>16300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>16100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>15200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>16700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>16900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>15700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>128300</v>
+      </c>
+      <c r="E43" s="3">
         <v>97400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>99400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>153700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>155100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>134400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>143300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>149500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>150500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>139000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>154100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>146500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>145200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>134900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>150800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>143200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>188700</v>
+      </c>
+      <c r="E44" s="3">
         <v>180400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>181600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>198600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>205100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>197700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>196900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>219200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>214900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>195000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>184800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>186300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>180100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>178500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>175100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>193700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>186700</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>110000</v>
+      </c>
+      <c r="E45" s="3">
         <v>80200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>61800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>62300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>60500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>58100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>49800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>59100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>61800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>42200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>28500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>29500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>33400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>39100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>32700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>35200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>32900</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>796400</v>
+      </c>
+      <c r="E46" s="3">
         <v>704000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>626300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>603300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>561600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>531300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>541100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>547400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>537400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>525900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>518200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>513700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>496100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>488900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>517400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>498100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>485700</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E47" s="3">
         <v>26000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>26100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>28400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>36200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>33000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>36100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>39700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>38000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>41300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>43100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>44900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>45200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>41600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>36800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>34000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>35200</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>553500</v>
+      </c>
+      <c r="E48" s="3">
         <v>523100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>533400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>531000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>512700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>517200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>200500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>195700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>195300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>188100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>180900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>174900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>171500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>171100</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>169100</v>
       </c>
       <c r="R48" s="3">
         <v>169100</v>
       </c>
       <c r="S48" s="3">
+        <v>169100</v>
+      </c>
+      <c r="T48" s="3">
         <v>170600</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>205500</v>
+      </c>
+      <c r="E49" s="3">
         <v>190200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>189700</v>
-      </c>
-      <c r="F49" s="3">
-        <v>214600</v>
       </c>
       <c r="G49" s="3">
         <v>214600</v>
       </c>
       <c r="H49" s="3">
+        <v>214600</v>
+      </c>
+      <c r="I49" s="3">
         <v>214300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>215800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>215000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>212600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>92400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>93400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>94300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>92600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>93200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>92700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>92600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>63100</v>
+      </c>
+      <c r="E52" s="3">
         <v>60500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>59400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>65400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>67200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>66400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>66300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>63700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>68800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>58900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>57300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>65700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>76100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>73800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>72800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>70900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1650300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1503700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1434900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1442600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1392300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1362200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1059800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1061500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1052100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>906600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>893000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>893500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>881500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>868500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>888900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>864600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>823000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,90 +3141,94 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>89300</v>
+      </c>
+      <c r="E57" s="3">
         <v>61900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>55500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>68000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>71900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>62900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>65400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>72400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>75100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>62900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>62400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>66700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>53400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>47400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>51300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>51000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>46900</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>50000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>75000</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
       </c>
       <c r="I58" s="3">
+        <v>100</v>
+      </c>
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>20200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>35200</v>
-      </c>
-      <c r="L58" s="3">
-        <v>200</v>
       </c>
       <c r="M58" s="3">
         <v>200</v>
@@ -3115,116 +3249,125 @@
         <v>200</v>
       </c>
       <c r="S58" s="3">
+        <v>200</v>
+      </c>
+      <c r="T58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>401100</v>
+      </c>
+      <c r="E59" s="3">
         <v>312600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>219600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>260400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>245700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>232800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>173100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>176300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>176100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>127700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>118700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>131200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>133300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>126900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>147200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>138900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>116500</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>490300</v>
+      </c>
+      <c r="E60" s="3">
         <v>424500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>350200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>328500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>317600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>295900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>238600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>268900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>286400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>190800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>181300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>198100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>186900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>174500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>198700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>190100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>163600</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3250,87 +3393,93 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>100</v>
       </c>
       <c r="M61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N61" s="3">
         <v>200</v>
       </c>
       <c r="O61" s="3">
+        <v>200</v>
+      </c>
+      <c r="P61" s="3">
         <v>300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>200</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>300</v>
       </c>
       <c r="R61" s="3">
         <v>300</v>
       </c>
       <c r="S61" s="3">
+        <v>300</v>
+      </c>
+      <c r="T61" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>405400</v>
+      </c>
+      <c r="E62" s="3">
         <v>364200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>368400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>384600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>364000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>368200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>124200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>120700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>116400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>89000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>86200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>92300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>90000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>90800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>88800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>87200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>903600</v>
+      </c>
+      <c r="E66" s="3">
         <v>796200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>734100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>728700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>697100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>678900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>377300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>404200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>416300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>292400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>280800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>303600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>289300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>277200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>298900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>288400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>261300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>378400</v>
+      </c>
+      <c r="E72" s="3">
         <v>346800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>343600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>353400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>337000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>329100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>325800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>330500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>309500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>296300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>291600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>271900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>279300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>280300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>284700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>272600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>258900</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>746800</v>
+      </c>
+      <c r="E76" s="3">
         <v>707600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>700800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>713900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>695200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>683300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>682500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>657300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>635800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>614200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>612200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>589900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>592300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>591300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>589900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>576200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>561700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44128</v>
+      </c>
+      <c r="E80" s="2">
         <v>44037</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43946</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43855</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43764</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43673</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43582</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43491</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43400</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43309</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43218</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43127</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43036</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42945</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42854</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42763</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E81" s="3">
         <v>4800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>34500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>22600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>18000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>28600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>19900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>18200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>34000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>12000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>22800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>11600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>27900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>23200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E83" s="3">
         <v>8100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8100</v>
-      </c>
-      <c r="P83" s="3">
-        <v>7800</v>
       </c>
       <c r="Q83" s="3">
         <v>7800</v>
       </c>
       <c r="R83" s="3">
+        <v>7800</v>
+      </c>
+      <c r="S83" s="3">
         <v>7300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>89400</v>
+      </c>
+      <c r="E89" s="3">
         <v>106300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>44500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>66100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>34400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>19300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>59300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>45400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>13900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>32200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>24600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>40000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>31700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>19500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>55000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>38900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-10600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-12500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-10700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-12300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-12700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-15900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-12200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-9600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-10600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="E94" s="3">
         <v>800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-9700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-14000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-18300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-8200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-12300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-87000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-15200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-10000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-29100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-23900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-19700</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,25 +5082,26 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-3200</v>
       </c>
       <c r="E96" s="3">
-        <v>-6500</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
         <v>-6500</v>
       </c>
       <c r="G96" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="H96" s="3">
         <v>-6000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-6100</v>
       </c>
       <c r="I96" s="3">
         <v>-6100</v>
@@ -4876,34 +5110,37 @@
         <v>-6100</v>
       </c>
       <c r="K96" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="L96" s="3">
         <v>-5700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-5600</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-5700</v>
       </c>
       <c r="N96" s="3">
         <v>-5700</v>
       </c>
       <c r="O96" s="3">
-        <v>-5300</v>
+        <v>-5700</v>
       </c>
       <c r="P96" s="3">
         <v>-5300</v>
       </c>
       <c r="Q96" s="3">
-        <v>-5400</v>
+        <v>-5300</v>
       </c>
       <c r="R96" s="3">
         <v>-5400</v>
       </c>
       <c r="S96" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="T96" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-51100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-35300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>62700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-18500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-15000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-19900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-22500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-26300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>31700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-15600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-14800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-20300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-24600</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-16500</v>
       </c>
       <c r="Q100" s="3">
         <v>-16500</v>
       </c>
       <c r="R100" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="S100" s="3">
         <v>-10300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>600</v>
+      </c>
+      <c r="E101" s="3">
         <v>1300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1300</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>300</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E102" s="3">
         <v>73200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>95300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>48700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-18200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>28200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>7700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-40700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>12900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-25300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>31500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-11600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LZB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LZB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>LZB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44219</v>
+      </c>
+      <c r="E7" s="2">
         <v>44128</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44037</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43946</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43855</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43764</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43673</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43582</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43491</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43400</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43309</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43218</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43127</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43036</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42945</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42854</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42763</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>470200</v>
+      </c>
+      <c r="E8" s="3">
         <v>459100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>285500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>367300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>475900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>447200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>413600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>453800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>467600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>439300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>384700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>420000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>413600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>393200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>357100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>412700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>390000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>376600</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>268900</v>
+      </c>
+      <c r="E9" s="3">
         <v>258600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>169100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>195600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>276200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>264800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>245900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>264000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>277700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>264900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>236200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>253800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>251100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>238300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>218000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>243800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>233200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>227200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>201300</v>
+      </c>
+      <c r="E10" s="3">
         <v>200500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>116400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>171700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>199700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>182400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>167700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>189800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>189900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>174400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>148500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>166200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>162500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>154900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>139100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>168900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>156800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>149400</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,23 +1079,23 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>25000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>6000</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>32700</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1083,11 +1103,11 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>-4100</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>435800</v>
+      </c>
+      <c r="E17" s="3">
         <v>411200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>281100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>352000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>429500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>417600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>390200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>449300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>426700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>410800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>361500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>374300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>380500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>358900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>340800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>369300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>356400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>342700</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E18" s="3">
         <v>47900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>15300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>46400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>29600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>23400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>40900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>28500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>23200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>45700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>33100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>34300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>16300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>43400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>33600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1346,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1900</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>49500</v>
+      </c>
+      <c r="E21" s="3">
         <v>56300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>14400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>22600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>55300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>39100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>30700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>12800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>48100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>34900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>32200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>53000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>40200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>41800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>26100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>50600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>41300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>40300</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1434,13 +1474,13 @@
         <v>300</v>
       </c>
       <c r="E22" s="3">
+        <v>300</v>
+      </c>
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>300</v>
       </c>
       <c r="H22" s="3">
         <v>300</v>
@@ -1449,16 +1489,16 @@
         <v>300</v>
       </c>
       <c r="J22" s="3">
+        <v>300</v>
+      </c>
+      <c r="K22" s="3">
         <v>400</v>
-      </c>
-      <c r="K22" s="3">
-        <v>500</v>
       </c>
       <c r="L22" s="3">
         <v>500</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
@@ -1467,134 +1507,143 @@
         <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>200</v>
       </c>
       <c r="R22" s="3">
+        <v>200</v>
+      </c>
+      <c r="S22" s="3">
         <v>300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E23" s="3">
         <v>47700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>14000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>46900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>31200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>23100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>39900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>26400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>24600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>44800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>32300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>33600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>18200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>42500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>33500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>33000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E24" s="3">
         <v>12400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>10600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>12200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>8300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>14400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>10500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>10400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>6500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>14200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>9800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E26" s="3">
         <v>35300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>34700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>22900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>18000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>29200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>20300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>19000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>30400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>21800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>23200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>11700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>28200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>23600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E27" s="3">
         <v>34900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>34500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>22600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>18000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>28600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>19900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>18200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>30000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>21500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>22800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>11600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>27900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>23200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1852,29 +1913,32 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>4000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-9500</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1900</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E33" s="3">
         <v>34900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>34500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>22600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>18000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>28600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>19900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>18200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>34000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>12000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>22800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>11600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>27900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>23200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E35" s="3">
         <v>34900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>34500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>22600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>18000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>28600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>19900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>18200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>34000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>12000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>22800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>11600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>27900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>23200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44219</v>
+      </c>
+      <c r="E38" s="2">
         <v>44128</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44037</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43946</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43855</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43764</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43673</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43582</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43491</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43400</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43309</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43218</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43127</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43036</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42945</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42854</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42763</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,512 +2400,540 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>390300</v>
+      </c>
+      <c r="E41" s="3">
         <v>350900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>334200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>261600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>166300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>117600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>111600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>129800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>101600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>93900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>134200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>134500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>135300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>122300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>119600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>141900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>110300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>105600</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E42" s="3">
         <v>18400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>11800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>22000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>22400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>23300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>29500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>21400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>18000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>16300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>15500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>16300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>16100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>15200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>16700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>16900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>15700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>129300</v>
+      </c>
+      <c r="E43" s="3">
         <v>128300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>97400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>99400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>153700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>155100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>134400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>143300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>149500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>150500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>139000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>154100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>146500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>145200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>134900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>150800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>143200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>212100</v>
+      </c>
+      <c r="E44" s="3">
         <v>188700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>180400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>181600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>198600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>205100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>197700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>196900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>219200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>214900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>195000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>184800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>186300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>180100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>178500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>175100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>193700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>186700</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>136300</v>
+      </c>
+      <c r="E45" s="3">
         <v>110000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>80200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>61800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>62300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>60500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>58100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>49800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>59100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>61800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>42200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>28500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>29500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>33400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>39100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>32700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>35200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>32900</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>888200</v>
+      </c>
+      <c r="E46" s="3">
         <v>796400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>704000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>626300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>603300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>561600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>531300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>541100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>547400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>537400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>525900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>518200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>513700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>496100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>488900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>517400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>498100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>485700</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>32800</v>
+      </c>
+      <c r="E47" s="3">
         <v>32000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>26000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>26100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>28400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>36200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>33000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>36100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>39700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>38000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>41300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>43100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>44900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>45200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>41600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>36800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>34000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>35200</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>550400</v>
+      </c>
+      <c r="E48" s="3">
         <v>553500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>523100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>533400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>531000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>512700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>517200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>200500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>195700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>195300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>188100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>180900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>174900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>171500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>171100</v>
-      </c>
-      <c r="R48" s="3">
-        <v>169100</v>
       </c>
       <c r="S48" s="3">
         <v>169100</v>
       </c>
       <c r="T48" s="3">
+        <v>169100</v>
+      </c>
+      <c r="U48" s="3">
         <v>170600</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>206200</v>
+      </c>
+      <c r="E49" s="3">
         <v>205500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>190200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>189700</v>
-      </c>
-      <c r="G49" s="3">
-        <v>214600</v>
       </c>
       <c r="H49" s="3">
         <v>214600</v>
       </c>
       <c r="I49" s="3">
+        <v>214600</v>
+      </c>
+      <c r="J49" s="3">
         <v>214300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>215800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>215000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>212600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>92400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>93400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>94300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>92600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>93200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>92700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>92600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3047,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>62600</v>
+      </c>
+      <c r="E52" s="3">
         <v>63100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>60500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>59400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>65400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>67200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>66400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>66300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>63700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>68800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>58900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>57300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>65700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>76100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>73800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>72800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>70900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1740200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1650300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1503700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1434900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1442600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1392300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1362200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1059800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1061500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1052100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>906600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>893000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>893500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>881500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>868500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>888900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>864600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>823000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3272,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>96400</v>
+      </c>
+      <c r="E57" s="3">
         <v>89300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>61900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>55500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>68000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>71900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>62900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>65400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>72400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>75100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>62900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>62400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>66700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>53400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>47400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>51300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>51000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>46900</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3207,31 +3341,31 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>50000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>75000</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
       </c>
       <c r="J58" s="3">
+        <v>100</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>20200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>35200</v>
-      </c>
-      <c r="M58" s="3">
-        <v>200</v>
       </c>
       <c r="N58" s="3">
         <v>200</v>
@@ -3252,122 +3386,131 @@
         <v>200</v>
       </c>
       <c r="T58" s="3">
+        <v>200</v>
+      </c>
+      <c r="U58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>454500</v>
+      </c>
+      <c r="E59" s="3">
         <v>401100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>312600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>219600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>260400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>245700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>232800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>173100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>176300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>176100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>127700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>118700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>131200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>133300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>126900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>147200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>138900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>116500</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>550800</v>
+      </c>
+      <c r="E60" s="3">
         <v>490300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>424500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>350200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>328500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>317600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>295900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>238600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>268900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>286400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>190800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>181300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>198100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>186900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>174500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>198700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>190100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>163600</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3396,90 +3539,96 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>100</v>
       </c>
       <c r="N61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O61" s="3">
         <v>200</v>
       </c>
       <c r="P61" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q61" s="3">
         <v>300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>200</v>
-      </c>
-      <c r="R61" s="3">
-        <v>300</v>
       </c>
       <c r="S61" s="3">
         <v>300</v>
       </c>
       <c r="T61" s="3">
+        <v>300</v>
+      </c>
+      <c r="U61" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>401300</v>
+      </c>
+      <c r="E62" s="3">
         <v>405400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>364200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>368400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>384600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>364000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>368200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>124200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>120700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>116400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>89000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>86200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>92300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>90000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>90800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>88800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>87200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>960700</v>
+      </c>
+      <c r="E66" s="3">
         <v>903600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>796200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>734100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>728700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>697100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>678900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>377300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>404200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>416300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>292400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>280800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>303600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>289300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>277200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>298900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>288400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>261300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>401100</v>
+      </c>
+      <c r="E72" s="3">
         <v>378400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>346800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>343600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>353400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>337000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>329100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>325800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>330500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>309500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>296300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>291600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>271900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>279300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>280300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>284700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>272600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>258900</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>779400</v>
+      </c>
+      <c r="E76" s="3">
         <v>746800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>707600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>700800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>713900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>695200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>683300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>682500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>657300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>635800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>614200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>612200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>589900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>592300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>591300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>589900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>576200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>561700</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44219</v>
+      </c>
+      <c r="E80" s="2">
         <v>44128</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44037</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43946</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43855</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43764</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43673</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43582</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43491</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43400</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43309</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43218</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43127</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43036</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42945</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42854</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42763</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E81" s="3">
         <v>34900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>34500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>22600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>18000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>28600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>19900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>18200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>34000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>12000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>22800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>11600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>27900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>23200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4621,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E83" s="3">
         <v>8200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>8100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>8100</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>7800</v>
       </c>
       <c r="R83" s="3">
         <v>7800</v>
       </c>
       <c r="S83" s="3">
+        <v>7800</v>
+      </c>
+      <c r="T83" s="3">
         <v>7300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>54100</v>
+      </c>
+      <c r="E89" s="3">
         <v>89400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>106300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>44500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>66100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>34400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>19300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>59300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>45400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>13900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>32200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>24600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>40000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>31700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>19500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>55000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>38900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-10600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-12500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-10700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-12300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-12700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-15900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-12200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-9100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-9600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-10600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-22200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-14000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-18300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-8200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-12300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-87000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-15200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-10000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-29100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-23900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-19700</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,28 +5316,29 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3200</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
-        <v>-6500</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>-6500</v>
       </c>
       <c r="H96" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="I96" s="3">
         <v>-6000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-6100</v>
       </c>
       <c r="J96" s="3">
         <v>-6100</v>
@@ -5113,34 +5347,37 @@
         <v>-6100</v>
       </c>
       <c r="L96" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="M96" s="3">
         <v>-5700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-5600</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-5700</v>
       </c>
       <c r="O96" s="3">
         <v>-5700</v>
       </c>
       <c r="P96" s="3">
-        <v>-5300</v>
+        <v>-5700</v>
       </c>
       <c r="Q96" s="3">
         <v>-5300</v>
       </c>
       <c r="R96" s="3">
-        <v>-5400</v>
+        <v>-5300</v>
       </c>
       <c r="S96" s="3">
         <v>-5400</v>
       </c>
       <c r="T96" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="U96" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5550,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-51100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-35300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>62700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-18500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-15000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-19900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-22500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-26300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>31700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-15600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-14800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-20300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-24600</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>-16500</v>
       </c>
       <c r="R100" s="3">
         <v>-16500</v>
       </c>
       <c r="S100" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="T100" s="3">
         <v>-10300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1300</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>300</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>39600</v>
+      </c>
+      <c r="E102" s="3">
         <v>16700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>73200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>95300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>48700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-18200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>28200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-40700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>12900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-25300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>31500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-11600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LZB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LZB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>LZB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,295 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44401</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44310</v>
+      </c>
+      <c r="F7" s="2">
         <v>44219</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44128</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44037</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43946</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43855</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43764</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43673</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43582</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43491</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43400</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43309</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43218</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43127</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43036</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42945</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42854</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42763</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>524800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>519500</v>
+      </c>
+      <c r="F8" s="3">
         <v>470200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>459100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>285500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>367300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>475900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>447200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>413600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>453800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>467600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>439300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>384700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>420000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>413600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>393200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>357100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>412700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>390000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>376600</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>322700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>297400</v>
+      </c>
+      <c r="F9" s="3">
         <v>268900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>258600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>169100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>195600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>276200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>264800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>245900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>264000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>277700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>264900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>236200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>253800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>251100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>238300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>218000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>243800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>233200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>227200</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>202100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>222100</v>
+      </c>
+      <c r="F10" s="3">
         <v>201300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>200500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>116400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>171700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>199700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>182400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>167700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>189800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>189900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>174400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>148500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>166200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>162500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>154900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>139100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>168900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>156800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>149400</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +975,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1036,14 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,52 +1101,58 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>25000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>6000</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3">
-        <v>32700</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>32700</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>-4100</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3">
+        <v>-4100</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1127,8 +1166,14 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1231,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,67 +1257,75 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>490400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>469400</v>
+      </c>
+      <c r="F17" s="3">
         <v>435800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>411200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>281100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>352000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>429500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>417600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>390200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>449300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>426700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>410800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>361500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>374300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>380500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>358900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>340800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>369300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>356400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>342700</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1274,58 +1333,64 @@
         <v>34400</v>
       </c>
       <c r="E18" s="3">
+        <v>50100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>34400</v>
+      </c>
+      <c r="G18" s="3">
         <v>47900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>4400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>15300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>46400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>29600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>23400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>4500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>40900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>28500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>23200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>45700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>33100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>34300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>16300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>43400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>33600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,126 +1412,140 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F20" s="3">
         <v>6800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1900</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>2100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>60100</v>
+      </c>
+      <c r="F21" s="3">
         <v>49500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>56300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>14400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>22600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>55300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>39100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>30700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>12800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>48100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>34900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>32200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>53000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>40200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>41800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>26100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>50600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>41300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>40300</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1477,173 +1556,191 @@
         <v>300</v>
       </c>
       <c r="F22" s="3">
+        <v>300</v>
+      </c>
+      <c r="G22" s="3">
+        <v>300</v>
+      </c>
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>400</v>
-      </c>
-      <c r="H22" s="3">
-        <v>300</v>
-      </c>
-      <c r="I22" s="3">
-        <v>300</v>
       </c>
       <c r="J22" s="3">
         <v>300</v>
       </c>
       <c r="K22" s="3">
+        <v>300</v>
+      </c>
+      <c r="L22" s="3">
+        <v>300</v>
+      </c>
+      <c r="M22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>500</v>
-      </c>
-      <c r="N22" s="3">
-        <v>100</v>
-      </c>
-      <c r="O22" s="3">
-        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
       </c>
       <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3">
+        <v>100</v>
+      </c>
+      <c r="S22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>34100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>51400</v>
+      </c>
+      <c r="F23" s="3">
         <v>40900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>47700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>5800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>14000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>46900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>31200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>23100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>4500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>39900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>26400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>24600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>44800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>32300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>33600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>18200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>42500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>33500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>33000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E24" s="3">
+        <v>13500</v>
+      </c>
+      <c r="F24" s="3">
         <v>11300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>12400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>10600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>12200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>8300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>5100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>2800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>10700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>6000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>5600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>14400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>10500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>10400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>6500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>14200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>9800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1798,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>38000</v>
+      </c>
+      <c r="F26" s="3">
         <v>29600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>35300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>4700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>3400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>34700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>22900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>18000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>29200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>20300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>19000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>30400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>21800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>23200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>11700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>28200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>23600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>37500</v>
+      </c>
+      <c r="F27" s="3">
         <v>29200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>34900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>4800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>2300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>34500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>22600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>18000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>28600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>19900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>18200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>30000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>21500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>22800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>11600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>27900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>23200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,31 +1993,37 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1916,29 +2037,35 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>4000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3" t="s">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2188,144 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-6800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1900</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-2100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>37500</v>
+      </c>
+      <c r="F33" s="3">
         <v>29200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>34900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>4800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>2300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>34500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>22600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>18000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>28600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>19900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>18200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>34000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>12000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>22800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>11600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>27900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>23200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2383,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>37500</v>
+      </c>
+      <c r="F35" s="3">
         <v>29200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>34900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>4800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>2300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>34500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>22600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>18000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>28600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>19900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>18200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>34000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>12000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>22800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>11600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>27900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>23200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44401</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44310</v>
+      </c>
+      <c r="F38" s="2">
         <v>44219</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44128</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44037</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43946</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43855</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43764</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43673</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43582</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43491</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43400</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43309</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43218</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43127</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43036</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42945</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42854</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42763</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,539 +2572,595 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>333000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>391200</v>
+      </c>
+      <c r="F41" s="3">
         <v>390300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>350900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>334200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>261600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>166300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>117600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>111600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>129800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>101600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>93900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>134200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>134500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>135300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>122300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>119600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>141900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>110300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>105600</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>20600</v>
+      </c>
+      <c r="F42" s="3">
         <v>20200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>18400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>11800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>22000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>22400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>23300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>29500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>21400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>18000</v>
-      </c>
-      <c r="M42" s="3">
-        <v>16300</v>
-      </c>
-      <c r="N42" s="3">
-        <v>15500</v>
       </c>
       <c r="O42" s="3">
         <v>16300</v>
       </c>
       <c r="P42" s="3">
+        <v>15500</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>16300</v>
+      </c>
+      <c r="R42" s="3">
         <v>16100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>15200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>16700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>16900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>15700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>141600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>139300</v>
+      </c>
+      <c r="F43" s="3">
         <v>129300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>128300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>97400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>99400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>153700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>155100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>134400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>143300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>149500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>150500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>139000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>154100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>146500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>145200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>134900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>150800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>143200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>264500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>226100</v>
+      </c>
+      <c r="F44" s="3">
         <v>212100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>188700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>180400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>181600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>198600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>205100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>197700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>196900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>219200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>214900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>195000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>184800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>186300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>180100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>178500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>175100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>193700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>186700</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>178200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>148900</v>
+      </c>
+      <c r="F45" s="3">
         <v>136300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>110000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>80200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>61800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>62300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>60500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>58100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>49800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>59100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>61800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>42200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>28500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>29500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>33400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>39100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>32700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>35200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>32900</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>937300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>926200</v>
+      </c>
+      <c r="F46" s="3">
         <v>888200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>796400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>704000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>626300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>603300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>561600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>531300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>541100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>547400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>537400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>525900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>518200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>513700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>496100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>488900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>517400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>498100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>485700</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>34800</v>
+      </c>
+      <c r="F47" s="3">
         <v>32800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>32000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>26000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>26100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>28400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>36200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>33000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>36100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>39700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>38000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>41300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>43100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>44900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>45200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>41600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>36800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>34000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>35200</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>571700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>563000</v>
+      </c>
+      <c r="F48" s="3">
         <v>550400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>553500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>523100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>533400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>531000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>512700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>517200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>200500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>195700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>195300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>188100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>180900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>174900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>171500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>171100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>169100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>169100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>170600</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>205800</v>
+      </c>
+      <c r="E49" s="3">
         <v>206200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
+        <v>206200</v>
+      </c>
+      <c r="G49" s="3">
         <v>205500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>190200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>189700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>214600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>214600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>214300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>215800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>215000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>212600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>92400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>93400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>94300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>92600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>93200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>92700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>92600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3283,79 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>59100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>56100</v>
+      </c>
+      <c r="F52" s="3">
         <v>62600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>63100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>60500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>59400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>65400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>67200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>66400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>66300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>63700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>68800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>58900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>57300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>65700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>76100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>73800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>72800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>70900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3413,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1809500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1786300</v>
+      </c>
+      <c r="F54" s="3">
         <v>1740200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1650300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1503700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1434900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1442600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1392300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1362200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1059800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1061500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1052100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>906600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>893000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>893500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>881500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>868500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>888900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>864600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>823000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,105 +3532,113 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>118100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>94200</v>
+      </c>
+      <c r="F57" s="3">
         <v>96400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>89300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>61900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>55500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>68000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>71900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>62900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>65400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>72400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>75100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>62900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>62400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>66700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>53400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>47400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>51300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>51000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>46900</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>50000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>75000</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>20200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>35200</v>
-      </c>
-      <c r="N58" s="3">
-        <v>200</v>
-      </c>
-      <c r="O58" s="3">
-        <v>200</v>
       </c>
       <c r="P58" s="3">
         <v>200</v>
@@ -3389,128 +3656,146 @@
         <v>200</v>
       </c>
       <c r="U58" s="3">
+        <v>200</v>
+      </c>
+      <c r="V58" s="3">
+        <v>200</v>
+      </c>
+      <c r="W58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>534200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>517500</v>
+      </c>
+      <c r="F59" s="3">
         <v>454500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>401100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>312600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>219600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>260400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>245700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>232800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>173100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>176300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>176100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>127700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>118700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>131200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>133300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>126900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>147200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>138900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>116500</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>652300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>611700</v>
+      </c>
+      <c r="F60" s="3">
         <v>550800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>490300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>424500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>350200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>328500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>317600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>295900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>238600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>268900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>286400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>190800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>181300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>198100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>186900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>174500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>198700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>190100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>163600</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3542,19 +3827,19 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>200</v>
-      </c>
-      <c r="P61" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>300</v>
       </c>
       <c r="R61" s="3">
         <v>200</v>
@@ -3563,72 +3848,84 @@
         <v>300</v>
       </c>
       <c r="T61" s="3">
+        <v>200</v>
+      </c>
+      <c r="U61" s="3">
         <v>300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
+        <v>300</v>
+      </c>
+      <c r="W61" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>392700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>392500</v>
+      </c>
+      <c r="F62" s="3">
         <v>401300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>405400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>364200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>368400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>384600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>364000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>368200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>124200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>120700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>116400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>89000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>86200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>92300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>90000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>90800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>88800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>87200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +4113,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1054000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1012800</v>
+      </c>
+      <c r="F66" s="3">
         <v>960700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>903600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>796200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>734100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>728700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>697100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>678900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>377300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>404200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>416300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>292400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>280800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>303600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>289300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>277200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>298900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>288400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>261300</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4398,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4463,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>379900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>399000</v>
+      </c>
+      <c r="F72" s="3">
         <v>401100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>378400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>346800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>343600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>353400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>337000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>329100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>325800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>330500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>309500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>296300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>291600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>271900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>279300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>280300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>284700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>272600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>258900</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4723,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>755500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>773500</v>
+      </c>
+      <c r="F76" s="3">
         <v>779400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>746800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>707600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>700800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>713900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>695200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>683300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>682500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>657300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>635800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>614200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>612200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>589900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>592300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>591300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>589900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>576200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>561700</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4853,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44401</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44310</v>
+      </c>
+      <c r="F80" s="2">
         <v>44219</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44128</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44037</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43946</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43855</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43764</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43673</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43582</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43491</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43400</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43309</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43218</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43127</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43036</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42945</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42854</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42763</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>37500</v>
+      </c>
+      <c r="F81" s="3">
         <v>29200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>34900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>4800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>2300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>34500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>22600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>18000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>28600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>19900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>18200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>34000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>12000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>22800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>11600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>27900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>23200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,19 +5017,21 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F83" s="3">
         <v>8300</v>
-      </c>
-      <c r="E83" s="3">
-        <v>8200</v>
-      </c>
-      <c r="F83" s="3">
-        <v>8100</v>
       </c>
       <c r="G83" s="3">
         <v>8200</v>
@@ -4643,28 +5040,28 @@
         <v>8100</v>
       </c>
       <c r="I83" s="3">
+        <v>8200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K83" s="3">
         <v>7600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>7300</v>
-      </c>
-      <c r="K83" s="3">
-        <v>8000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>7600</v>
       </c>
       <c r="M83" s="3">
         <v>8000</v>
       </c>
       <c r="N83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="O83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="P83" s="3">
         <v>7500</v>
-      </c>
-      <c r="O83" s="3">
-        <v>8100</v>
-      </c>
-      <c r="P83" s="3">
-        <v>7800</v>
       </c>
       <c r="Q83" s="3">
         <v>8100</v>
@@ -4673,16 +5070,22 @@
         <v>7800</v>
       </c>
       <c r="S83" s="3">
+        <v>8100</v>
+      </c>
+      <c r="T83" s="3">
         <v>7800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
+        <v>7800</v>
+      </c>
+      <c r="V83" s="3">
         <v>7300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5403,79 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>60100</v>
+      </c>
+      <c r="F89" s="3">
         <v>54100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>89400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>106300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>44500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>66100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>34400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>19300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>59300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>45400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>13900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>32200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>24600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>40000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>31700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>19500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>55000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>38900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5497,75 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-11300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-5600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-9800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-10600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-12500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-10700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-12300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-12700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-8800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-11100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-15900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-12200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-7200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-9100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-9600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-10600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5688,79 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-14300</v>
       </c>
-      <c r="E94" s="3">
-        <v>-22200</v>
-      </c>
-      <c r="F94" s="3">
-        <v>800</v>
-      </c>
       <c r="G94" s="3">
-        <v>-9700</v>
+        <v>-22600</v>
       </c>
       <c r="H94" s="3">
         <v>1200</v>
       </c>
       <c r="I94" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J94" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-14000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-18300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-8200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-12300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-87000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-15200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-10000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-8000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-29100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-7200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-23900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-19700</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,67 +5782,75 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F96" s="3">
         <v>-6500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-3200</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-6500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-6500</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-6000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-6100</v>
       </c>
       <c r="L96" s="3">
         <v>-6100</v>
       </c>
       <c r="M96" s="3">
-        <v>-5700</v>
+        <v>-6100</v>
       </c>
       <c r="N96" s="3">
-        <v>-5600</v>
+        <v>-6100</v>
       </c>
       <c r="O96" s="3">
         <v>-5700</v>
       </c>
       <c r="P96" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="S96" s="3">
         <v>-5300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-5300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-5400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-5400</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,181 +6038,205 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-44700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-53200</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-51100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-35300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>62700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-18500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-15000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-19900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-22500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-26300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>31700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-15600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-14800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-20300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-24600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-16500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-16500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-10300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F101" s="3">
         <v>1200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>1300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-2300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-1600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>1300</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>300</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-58500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F102" s="3">
         <v>39600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>16700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>73200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>95300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>48700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>5900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-18200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>28200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>7700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-40700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>12900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-25300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>31500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>4800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-11600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LZB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LZB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>LZB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44492</v>
+      </c>
+      <c r="E7" s="2">
         <v>44401</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44310</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44219</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44128</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44037</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43946</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43855</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43764</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43673</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43582</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43491</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43400</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43309</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43218</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43127</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43036</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42945</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42854</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42763</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>575900</v>
+      </c>
+      <c r="E8" s="3">
         <v>524800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>519500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>470200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>459100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>285500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>367300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>475900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>447200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>413600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>453800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>467600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>439300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>384700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>420000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>413600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>393200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>357100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>412700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>390000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>376600</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>352600</v>
+      </c>
+      <c r="E9" s="3">
         <v>322700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>297400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>268900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>258600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>169100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>195600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>276200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>264800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>245900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>264000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>277700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>264900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>236200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>253800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>251100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>238300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>218000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>243800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>233200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>227200</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>223300</v>
+      </c>
+      <c r="E10" s="3">
         <v>202100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>222100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>201300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>200500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>116400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>171700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>199700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>182400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>167700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>189800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>189900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>174400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>148500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>166200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>162500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>154900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>139100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>168900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>156800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>149400</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,19 +1124,22 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1127,23 +1147,23 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>25000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>6000</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>32700</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1151,11 +1171,11 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>-4100</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>521800</v>
+      </c>
+      <c r="E17" s="3">
         <v>490400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>469400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>435800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>411200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>281100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>352000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>429500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>417600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>390200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>449300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>426700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>410800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>361500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>374300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>380500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>358900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>340800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>369300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>356400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>342700</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>54100</v>
+      </c>
+      <c r="E18" s="3">
         <v>34400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>50100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>34400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>47900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>15300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>46400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>29600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>23400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>40900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>28500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>23200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>45700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>33100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>34300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>16300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>43400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>33600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,143 +1447,150 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>6800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1900</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>64500</v>
+      </c>
+      <c r="E21" s="3">
         <v>42900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>60100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>49500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>56300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>14400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>22600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>55300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>39100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>30700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>12800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>48100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>34900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>32200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>53000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>40200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>41800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>26100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>50600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>41300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>40300</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>300</v>
@@ -1562,13 +1602,13 @@
         <v>300</v>
       </c>
       <c r="H22" s="3">
+        <v>300</v>
+      </c>
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>400</v>
-      </c>
-      <c r="J22" s="3">
-        <v>300</v>
       </c>
       <c r="K22" s="3">
         <v>300</v>
@@ -1577,16 +1617,16 @@
         <v>300</v>
       </c>
       <c r="M22" s="3">
+        <v>300</v>
+      </c>
+      <c r="N22" s="3">
         <v>400</v>
-      </c>
-      <c r="N22" s="3">
-        <v>500</v>
       </c>
       <c r="O22" s="3">
         <v>500</v>
       </c>
       <c r="P22" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
@@ -1595,152 +1635,161 @@
         <v>100</v>
       </c>
       <c r="S22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>200</v>
       </c>
       <c r="U22" s="3">
+        <v>200</v>
+      </c>
+      <c r="V22" s="3">
         <v>300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E23" s="3">
         <v>34100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>51400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>40900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>47700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>14000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>46900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>31200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>23100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>39900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>26400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>24600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>44800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>32300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>33600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>18200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>42500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>33500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>33000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E24" s="3">
         <v>8800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>13500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>11300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>12400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>10600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>12200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>10700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>14400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>10500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>10400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>6500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>14200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>9800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E26" s="3">
         <v>25300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>38000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>29600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>35300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>34700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>22900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>18000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>29200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>20300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>19000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>30400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>21800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>23200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>11700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>28200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>23600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E27" s="3">
         <v>24600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>37500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>29200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>34900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>34500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>22600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>18000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>28600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>19900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>18200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>30000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>21500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>22800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>11600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>27900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>23200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2025,8 +2086,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2043,29 +2104,32 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>4000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-9500</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-6800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1900</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E33" s="3">
         <v>24600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>37500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>29200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>34900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>34500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>22600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>18000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>28600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>19900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>18200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>34000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>12000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>22800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>11600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>27900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>23200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E35" s="3">
         <v>24600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>37500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>29200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>34900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>34500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>22600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>18000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>28600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>19900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>18200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>34000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>12000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>22800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>11600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>27900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>23200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44492</v>
+      </c>
+      <c r="E38" s="2">
         <v>44401</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44310</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44219</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44128</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44037</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43946</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43855</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43764</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43673</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43582</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43491</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43400</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43309</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43218</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43127</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43036</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42945</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42854</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42763</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,593 +2660,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>293300</v>
+      </c>
+      <c r="E41" s="3">
         <v>333000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>391200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>390300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>350900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>334200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>261600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>166300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>117600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>111600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>129800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>101600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>93900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>134200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>134500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>135300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>122300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>119600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>141900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>110300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>105600</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E42" s="3">
         <v>20000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>20600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>20200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>18400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>11800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>22000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>22400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>23300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>29500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>21400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>18000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>16300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>15500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>16300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>16100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>15200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>16700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>16900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>15700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>174000</v>
+      </c>
+      <c r="E43" s="3">
         <v>141600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>139300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>129300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>128300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>97400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>99400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>153700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>155100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>134400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>143300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>149500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>150500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>139000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>154100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>146500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>145200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>134900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>150800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>143200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>285800</v>
+      </c>
+      <c r="E44" s="3">
         <v>264500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>226100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>212100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>188700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>180400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>181600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>198600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>205100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>197700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>196900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>219200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>214900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>195000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>184800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>186300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>180100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>178500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>175100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>193700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>186700</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>194200</v>
+      </c>
+      <c r="E45" s="3">
         <v>178200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>148900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>136300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>110000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>80200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>61800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>62300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>60500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>58100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>49800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>59100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>61800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>42200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>28500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>29500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>33400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>39100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>32700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>35200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>32900</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>965200</v>
+      </c>
+      <c r="E46" s="3">
         <v>937300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>926200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>888200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>796400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>704000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>626300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>603300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>561600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>531300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>541100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>547400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>537400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>525900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>518200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>513700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>496100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>488900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>517400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>498100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>485700</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E47" s="3">
         <v>35600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>34800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>32800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>32000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>26000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>26100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>28400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>36200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>33000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>36100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>39700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>38000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>41300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>43100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>44900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>45200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>41600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>36800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>34000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>35200</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>578900</v>
+      </c>
+      <c r="E48" s="3">
         <v>571700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>563000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>550400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>553500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>523100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>533400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>531000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>512700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>517200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>200500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>195700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>195300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>188100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>180900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>174900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>171500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>171100</v>
-      </c>
-      <c r="U48" s="3">
-        <v>169100</v>
       </c>
       <c r="V48" s="3">
         <v>169100</v>
       </c>
       <c r="W48" s="3">
+        <v>169100</v>
+      </c>
+      <c r="X48" s="3">
         <v>170600</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>210800</v>
+      </c>
+      <c r="E49" s="3">
         <v>205800</v>
-      </c>
-      <c r="E49" s="3">
-        <v>206200</v>
       </c>
       <c r="F49" s="3">
         <v>206200</v>
       </c>
       <c r="G49" s="3">
+        <v>206200</v>
+      </c>
+      <c r="H49" s="3">
         <v>205500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>190200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>189700</v>
-      </c>
-      <c r="J49" s="3">
-        <v>214600</v>
       </c>
       <c r="K49" s="3">
         <v>214600</v>
       </c>
       <c r="L49" s="3">
+        <v>214600</v>
+      </c>
+      <c r="M49" s="3">
         <v>214300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>215800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>215000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>212600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>92400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>93400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>94300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>92600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>93200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>92700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>92600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>79300</v>
+      </c>
+      <c r="E52" s="3">
         <v>59100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>56100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>62600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>63100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>60500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>59400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>65400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>67200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>66400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>66300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>63700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>68800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>58900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>57300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>65700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>76100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>73800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>72800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>70900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1852100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1809500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1786300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1740200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1650300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1503700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1434900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1442600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1392300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1362200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1059800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1061500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1052100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>906600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>893000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>893500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>881500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>868500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>888900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>864600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>823000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,81 +3664,85 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>120000</v>
+      </c>
+      <c r="E57" s="3">
         <v>118100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>94200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>96400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>89300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>61900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>55500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>68000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>71900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>62900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>65400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>72400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>75100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>62900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>62400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>66700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>53400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>47400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>51300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>51000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>46900</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -3617,31 +3751,31 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>50000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>75000</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
       </c>
       <c r="M58" s="3">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>20200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>35200</v>
-      </c>
-      <c r="P58" s="3">
-        <v>200</v>
       </c>
       <c r="Q58" s="3">
         <v>200</v>
@@ -3662,140 +3796,149 @@
         <v>200</v>
       </c>
       <c r="W58" s="3">
+        <v>200</v>
+      </c>
+      <c r="X58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>560600</v>
+      </c>
+      <c r="E59" s="3">
         <v>534200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>517500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>454500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>401100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>312600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>219600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>260400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>245700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>232800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>173100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>176300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>176100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>127700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>118700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>131200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>133300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>126900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>147200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>138900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>116500</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>680500</v>
+      </c>
+      <c r="E60" s="3">
         <v>652300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>611700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>550800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>490300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>424500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>350200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>328500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>317600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>295900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>238600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>268900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>286400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>190800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>181300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>198100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>186900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>174500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>198700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>190100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>163600</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3833,99 +3976,105 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>100</v>
       </c>
       <c r="Q61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R61" s="3">
         <v>200</v>
       </c>
       <c r="S61" s="3">
+        <v>200</v>
+      </c>
+      <c r="T61" s="3">
         <v>300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>200</v>
-      </c>
-      <c r="U61" s="3">
-        <v>300</v>
       </c>
       <c r="V61" s="3">
         <v>300</v>
       </c>
       <c r="W61" s="3">
+        <v>300</v>
+      </c>
+      <c r="X61" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>385900</v>
+      </c>
+      <c r="E62" s="3">
         <v>392700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>392500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>401300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>405400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>364200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>368400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>384600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>364000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>368200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>124200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>120700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>116400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>89000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>86200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>92300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>90000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>90800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>88800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>87200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1074800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1054000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1012800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>960700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>903600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>796200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>734100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>728700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>697100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>678900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>377300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>404200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>416300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>292400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>280800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>303600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>289300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>277200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>298900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>288400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>261300</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>398300</v>
+      </c>
+      <c r="E72" s="3">
         <v>379900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>399000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>401100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>378400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>346800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>343600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>353400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>337000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>329100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>325800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>330500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>309500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>296300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>291600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>271900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>279300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>280300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>284700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>272600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>258900</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>777300</v>
+      </c>
+      <c r="E76" s="3">
         <v>755500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>773500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>779400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>746800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>707600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>700800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>713900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>695200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>683300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>682500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>657300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>635800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>614200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>612200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>589900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>592300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>591300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>589900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>576200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>561700</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44492</v>
+      </c>
+      <c r="E80" s="2">
         <v>44401</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44310</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44219</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44128</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44037</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43946</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43855</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43764</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43673</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43582</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43491</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43400</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43309</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43218</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43127</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43036</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42945</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42854</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42763</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E81" s="3">
         <v>24600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>37500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>29200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>34900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>34500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>22600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>18000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>28600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>19900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>18200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>34000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>12000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>22800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>11600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>27900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>23200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E83" s="3">
         <v>8600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>8100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>7800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>8100</v>
-      </c>
-      <c r="T83" s="3">
-        <v>7800</v>
       </c>
       <c r="U83" s="3">
         <v>7800</v>
       </c>
       <c r="V83" s="3">
+        <v>7800</v>
+      </c>
+      <c r="W83" s="3">
         <v>7300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E89" s="3">
         <v>6200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>60100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>54100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>89400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>106300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>44500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>66100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>34400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>19300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>59300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>45400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>13900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>32200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>24600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>40000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>31700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>19500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>55000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>38900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-10600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-12500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-12300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-12700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-11100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-15900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-12200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-9100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-9600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-10600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-19500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5000</v>
       </c>
-      <c r="F94" s="3">
-        <v>-14300</v>
-      </c>
       <c r="G94" s="3">
-        <v>-22600</v>
+        <v>-20100</v>
       </c>
       <c r="H94" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="I94" s="3">
         <v>1200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-14000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-18300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-12300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-87000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-15200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-10000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-8000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-29100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-7200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-23900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-19700</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,37 +6017,38 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-6800</v>
+        <v>-6600</v>
       </c>
       <c r="E96" s="3">
         <v>-6800</v>
       </c>
       <c r="F96" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="G96" s="3">
         <v>-6500</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-3200</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
-        <v>-6500</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
         <v>-6500</v>
       </c>
       <c r="K96" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="L96" s="3">
         <v>-6000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-6100</v>
       </c>
       <c r="M96" s="3">
         <v>-6100</v>
@@ -5823,34 +6057,37 @@
         <v>-6100</v>
       </c>
       <c r="O96" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="P96" s="3">
         <v>-5700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-5600</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-5700</v>
       </c>
       <c r="R96" s="3">
         <v>-5700</v>
       </c>
       <c r="S96" s="3">
-        <v>-5300</v>
+        <v>-5700</v>
       </c>
       <c r="T96" s="3">
         <v>-5300</v>
       </c>
       <c r="U96" s="3">
-        <v>-5400</v>
+        <v>-5300</v>
       </c>
       <c r="V96" s="3">
         <v>-5400</v>
       </c>
       <c r="W96" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="X96" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-44700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-53200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-51100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-35300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>62700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-18500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-15000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-19900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-22500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-26300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>31700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-15600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-14800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-20300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-24600</v>
-      </c>
-      <c r="T100" s="3">
-        <v>-16500</v>
       </c>
       <c r="U100" s="3">
         <v>-16500</v>
       </c>
       <c r="V100" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="W100" s="3">
         <v>-10300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1300</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>300</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-39600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-58500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>39600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>16700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>73200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>95300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>48700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-18200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>28200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>7700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-40700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>12900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-25300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>31500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>4800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-11600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LZB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LZB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>LZB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,321 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44583</v>
+      </c>
+      <c r="E7" s="2">
         <v>44492</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44401</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44310</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44219</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44128</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44037</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43946</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43855</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43764</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43673</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43582</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43491</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43400</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43309</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43218</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43127</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43036</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42945</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42854</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42763</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>571600</v>
+      </c>
+      <c r="E8" s="3">
         <v>575900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>524800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>519500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>470200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>459100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>285500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>367300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>475900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>447200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>413600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>453800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>467600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>439300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>384700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>420000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>413600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>393200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>357100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>412700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>390000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>376600</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>352200</v>
+      </c>
+      <c r="E9" s="3">
         <v>352600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>322700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>297400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>268900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>258600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>169100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>195600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>276200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>264800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>245900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>264000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>277700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>264900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>236200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>253800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>251100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>238300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>218000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>243800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>233200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>227200</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>219400</v>
+      </c>
+      <c r="E10" s="3">
         <v>223300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>202100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>222100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>201300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>200500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>116400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>171700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>199700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>182400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>167700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>189800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>189900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>174400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>148500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>166200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>162500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>154900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>139100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>168900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>156800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>149400</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1138,11 +1158,11 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1150,23 +1170,23 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>25000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6000</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>32700</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1174,11 +1194,11 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
         <v>-4100</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>532100</v>
+      </c>
+      <c r="E17" s="3">
         <v>521800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>490400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>469400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>435800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>411200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>281100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>352000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>429500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>417600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>390200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>449300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>426700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>410800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>361500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>374300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>380500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>358900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>340800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>369300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>356400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>342700</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E18" s="3">
         <v>54100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>34400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>50100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>34400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>47900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>15300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>46400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>29600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>23400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>40900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>28500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>23200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>45700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>33100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>34300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>16300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>43400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>33600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,144 +1481,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E20" s="3">
         <v>1100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>6800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1900</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>48200</v>
+      </c>
+      <c r="E21" s="3">
         <v>64500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>42900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>60100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>49500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>56300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>14400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>22600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>55300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>39100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>30700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>12800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>48100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>34900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>32200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>53000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>40200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>41800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>26100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>50600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>41300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>40300</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1593,7 +1633,7 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>300</v>
@@ -1605,13 +1645,13 @@
         <v>300</v>
       </c>
       <c r="I22" s="3">
+        <v>300</v>
+      </c>
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>400</v>
-      </c>
-      <c r="K22" s="3">
-        <v>300</v>
       </c>
       <c r="L22" s="3">
         <v>300</v>
@@ -1620,16 +1660,16 @@
         <v>300</v>
       </c>
       <c r="N22" s="3">
+        <v>300</v>
+      </c>
+      <c r="O22" s="3">
         <v>400</v>
-      </c>
-      <c r="O22" s="3">
-        <v>500</v>
       </c>
       <c r="P22" s="3">
         <v>500</v>
       </c>
       <c r="Q22" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="R22" s="3">
         <v>100</v>
@@ -1638,158 +1678,167 @@
         <v>100</v>
       </c>
       <c r="T22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U22" s="3">
         <v>200</v>
       </c>
       <c r="V22" s="3">
+        <v>200</v>
+      </c>
+      <c r="W22" s="3">
         <v>300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>38700</v>
+      </c>
+      <c r="E23" s="3">
         <v>55000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>34100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>51400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>40900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>47700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>14000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>46900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>31200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>23100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>39900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>26400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>24600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>44800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>32300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>33600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>18200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>42500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>33500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>33000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E24" s="3">
         <v>14700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>8800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>13500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>11300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>12400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>10600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>12200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>10700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>6000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>14400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>10500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>10400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>6500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>14200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>9800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E26" s="3">
         <v>40400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>25300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>38000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>29600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>35300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>34700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>22900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>18000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>29200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>20300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>19000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>30400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>21800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>23200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>11700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>28200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>23600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E27" s="3">
         <v>39500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>24600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>37500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>29200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>34900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>34500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>22600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>18000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>28600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>19900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>18200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>30000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>21500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>22800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>11600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>27900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>23200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2089,8 +2150,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2107,29 +2168,32 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>4000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-9500</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2331,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-6800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1900</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E33" s="3">
         <v>39500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>24600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>37500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>29200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>34900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>34500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>22600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>18000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>28600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>19900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>18200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>34000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>12000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>22800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>11600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>27900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>23200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E35" s="3">
         <v>39500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>24600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>37500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>29200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>34900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>34500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>22600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>18000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>28600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>19900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>18200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>34000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>12000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>22800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>11600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>27900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>23200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44583</v>
+      </c>
+      <c r="E38" s="2">
         <v>44492</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44401</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44310</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44219</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44128</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44037</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43946</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43855</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43764</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43673</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43582</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43491</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43400</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43309</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43218</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43127</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43036</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42945</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42854</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42763</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,620 +2747,648 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>236700</v>
+      </c>
+      <c r="E41" s="3">
         <v>293300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>333000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>391200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>390300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>350900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>334200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>261600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>166300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>117600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>111600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>129800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>101600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>93900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>134200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>134500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>135300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>122300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>119600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>141900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>110300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>105600</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E42" s="3">
         <v>17900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>20000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>20600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>20200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>18400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>11800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>22000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>22400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>23300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>29500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>21400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>18000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>16300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>15500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>16300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>16100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>15200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>16700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>16900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>15700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>314700</v>
+      </c>
+      <c r="E43" s="3">
         <v>174000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>141600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>139300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>129300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>128300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>97400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>99400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>153700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>155100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>134400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>143300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>149500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>150500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>139000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>154100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>146500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>145200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>134900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>150800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>143200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>315600</v>
+      </c>
+      <c r="E44" s="3">
         <v>285800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>264500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>226100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>212100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>188700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>180400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>181600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>198600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>205100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>197700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>196900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>219200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>214900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>195000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>184800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>186300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>180100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>178500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>175100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>193700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>186700</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>79100</v>
+      </c>
+      <c r="E45" s="3">
         <v>194200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>178200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>148900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>136300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>110000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>80200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>61800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>62300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>60500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>58100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>49800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>59100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>61800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>42200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>28500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>29500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>33400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>39100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>32700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>35200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>32900</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>962300</v>
+      </c>
+      <c r="E46" s="3">
         <v>965200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>937300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>926200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>888200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>796400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>704000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>626300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>603300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>561600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>531300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>541100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>547400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>537400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>525900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>518200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>513700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>496100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>488900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>517400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>498100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>485700</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E47" s="3">
         <v>17900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>35600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>34800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>32800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>32000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>26000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>26100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>28400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>36200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>33000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>36100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>39700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>38000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>41300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>43100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>44900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>45200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>41600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>36800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>34000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>35200</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>639700</v>
+      </c>
+      <c r="E48" s="3">
         <v>578900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>571700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>563000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>550400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>553500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>523100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>533400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>531000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>512700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>517200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>200500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>195700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>195300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>188100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>180900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>174900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>171500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>171100</v>
-      </c>
-      <c r="V48" s="3">
-        <v>169100</v>
       </c>
       <c r="W48" s="3">
         <v>169100</v>
       </c>
       <c r="X48" s="3">
+        <v>169100</v>
+      </c>
+      <c r="Y48" s="3">
         <v>170600</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>229500</v>
+      </c>
+      <c r="E49" s="3">
         <v>210800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>205800</v>
-      </c>
-      <c r="F49" s="3">
-        <v>206200</v>
       </c>
       <c r="G49" s="3">
         <v>206200</v>
       </c>
       <c r="H49" s="3">
+        <v>206200</v>
+      </c>
+      <c r="I49" s="3">
         <v>205500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>190200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>189700</v>
-      </c>
-      <c r="K49" s="3">
-        <v>214600</v>
       </c>
       <c r="L49" s="3">
         <v>214600</v>
       </c>
       <c r="M49" s="3">
+        <v>214600</v>
+      </c>
+      <c r="N49" s="3">
         <v>214300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>215800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>215000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>212600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>92400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>93400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>94300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>92600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>93200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>92700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>92600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3526,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>61700</v>
+      </c>
+      <c r="E52" s="3">
         <v>79300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>59100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>56100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>62600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>63100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>60500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>59400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>65400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>67200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>66400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>66300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>63700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>68800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>58900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>57300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>65700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>76100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>73800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>72800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>70900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1929600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1852100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1809500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1786300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1740200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1650300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1503700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1434900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1442600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1392300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1362200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1059800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1061500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1052100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>906600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>893000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>893500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>881500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>868500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>888900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>864600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>823000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,76 +3795,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>117200</v>
+      </c>
+      <c r="E57" s="3">
         <v>120000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>118100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>94200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>96400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>89300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>61900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>55500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>68000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>71900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>62900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>65400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>72400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>75100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>62900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>62400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>66700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>53400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>47400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>51300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>51000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>46900</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3744,8 +3878,8 @@
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -3754,31 +3888,31 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>50000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>75000</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
       </c>
       <c r="N58" s="3">
+        <v>100</v>
+      </c>
+      <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>20200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>35200</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>200</v>
       </c>
       <c r="R58" s="3">
         <v>200</v>
@@ -3799,146 +3933,155 @@
         <v>200</v>
       </c>
       <c r="X58" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>596200</v>
+      </c>
+      <c r="E59" s="3">
         <v>560600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>534200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>517500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>454500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>401100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>312600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>219600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>260400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>245700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>232800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>173100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>176300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>176100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>127700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>118700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>131200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>133300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>126900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>147200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>138900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>116500</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>713500</v>
+      </c>
+      <c r="E60" s="3">
         <v>680500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>652300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>611700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>550800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>490300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>424500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>350200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>328500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>317600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>295900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>238600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>268900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>286400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>190800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>181300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>198100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>186900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>174500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>198700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>190100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>163600</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3952,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -3979,102 +4122,108 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="3">
         <v>100</v>
       </c>
       <c r="R61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S61" s="3">
         <v>200</v>
       </c>
       <c r="T61" s="3">
+        <v>200</v>
+      </c>
+      <c r="U61" s="3">
         <v>300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>200</v>
-      </c>
-      <c r="V61" s="3">
-        <v>300</v>
       </c>
       <c r="W61" s="3">
         <v>300</v>
       </c>
       <c r="X61" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y61" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>431600</v>
+      </c>
+      <c r="E62" s="3">
         <v>385900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>392700</v>
       </c>
-      <c r="F62" s="3">
-        <v>392500</v>
-      </c>
       <c r="G62" s="3">
+        <v>392000</v>
+      </c>
+      <c r="H62" s="3">
         <v>401300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>405400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>364200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>368400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>384600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>364000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>368200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>124200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>120700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>116400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>89000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>86200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>92300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>90000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>90800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>88800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>87200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1154200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1074800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1054000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1012800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>960700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>903600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>796200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>734100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>728700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>697100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>678900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>377300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>404200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>416300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>292400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>280800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>303600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>289300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>277200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>298900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>288400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>261300</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>395600</v>
+      </c>
+      <c r="E72" s="3">
         <v>398300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>379900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>399000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>401100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>378400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>346800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>343600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>353400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>337000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>329100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>325800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>330500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>309500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>296300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>291600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>271900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>279300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>280300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>284700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>272600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>258900</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>775400</v>
+      </c>
+      <c r="E76" s="3">
         <v>777300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>755500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>773500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>779400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>746800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>707600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>700800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>713900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>695200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>683300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>682500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>657300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>635800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>614200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>612200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>589900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>592300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>591300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>589900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>576200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>561700</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44583</v>
+      </c>
+      <c r="E80" s="2">
         <v>44492</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44401</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44310</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44219</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44128</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44037</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43946</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43855</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43764</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43673</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43582</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43491</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43400</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43309</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43218</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43127</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43036</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42945</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42854</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42763</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E81" s="3">
         <v>39500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>24600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>37500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>29200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>34900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>34500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>22600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>18000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>28600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>19900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>18200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>34000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>12000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>22800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>11600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>27900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>23200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5416,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E83" s="3">
         <v>9200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>8000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>8000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>8100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>7800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>8100</v>
-      </c>
-      <c r="U83" s="3">
-        <v>7800</v>
       </c>
       <c r="V83" s="3">
         <v>7800</v>
       </c>
       <c r="W83" s="3">
+        <v>7800</v>
+      </c>
+      <c r="X83" s="3">
         <v>7300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E89" s="3">
         <v>9300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>6200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>60100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>54100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>89400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>106300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>44500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>66100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>34400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>19300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>59300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>45400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>13900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>32200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>24600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>40000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>31700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>19500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>55000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>38900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5940,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-14000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-19300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-11300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-10600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-12500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-12300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-12700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-15900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-12200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-7200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-9100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-9600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-10600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6151,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-13000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-19500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-20100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-16800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-14000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-18300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-12300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-87000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-15200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-10000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-8100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-8000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-29100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-7200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-23900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-19700</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,40 +6251,41 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-6600</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-6800</v>
       </c>
       <c r="F96" s="3">
         <v>-6800</v>
       </c>
       <c r="G96" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="H96" s="3">
         <v>-6500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-3200</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
-        <v>-6500</v>
+        <v>0</v>
       </c>
       <c r="K96" s="3">
         <v>-6500</v>
       </c>
       <c r="L96" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="M96" s="3">
         <v>-6000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-6100</v>
       </c>
       <c r="N96" s="3">
         <v>-6100</v>
@@ -6060,34 +6294,37 @@
         <v>-6100</v>
       </c>
       <c r="P96" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-5600</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-5700</v>
       </c>
       <c r="S96" s="3">
         <v>-5700</v>
       </c>
       <c r="T96" s="3">
-        <v>-5300</v>
+        <v>-5700</v>
       </c>
       <c r="U96" s="3">
         <v>-5300</v>
       </c>
       <c r="V96" s="3">
-        <v>-5400</v>
+        <v>-5300</v>
       </c>
       <c r="W96" s="3">
         <v>-5400</v>
       </c>
       <c r="X96" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6533,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-41600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-36100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-44700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-53200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-51100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-35300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>62700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-18500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-15000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-19900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-22500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-26300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>31700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-15600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-14800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-20300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-24600</v>
-      </c>
-      <c r="U100" s="3">
-        <v>-16500</v>
       </c>
       <c r="V100" s="3">
         <v>-16500</v>
       </c>
       <c r="W100" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="X100" s="3">
         <v>-10300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1300</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>300</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-56600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-39600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-58500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>39600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>16700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>73200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>95300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>48700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-18200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>28200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>7700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-40700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>12900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-25300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>31500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>4800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-11600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LZB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LZB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>LZB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,346 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44772</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="F7" s="2">
         <v>44583</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44492</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44401</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44310</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44219</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44128</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44037</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43946</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43855</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43764</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43673</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43582</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43491</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43400</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43309</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43218</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43127</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43036</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42945</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42854</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42763</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>604100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>684600</v>
+      </c>
+      <c r="F8" s="3">
         <v>571600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>575900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>524800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>519500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>470200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>459100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>285500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>367300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>475900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>447200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>413600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>453800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>467600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>439300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>384700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>420000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>413600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>393200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>357100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>412700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>390000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>376600</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>362600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>413300</v>
+      </c>
+      <c r="F9" s="3">
         <v>352200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>352600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>322700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>297400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>268900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>258600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>169100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>195600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>276200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>264800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>245900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>264000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>277700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>264900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>236200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>253800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>251100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>238300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>218000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>243800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>233200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>227200</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>241500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>271300</v>
+      </c>
+      <c r="F10" s="3">
         <v>219400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>223300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>202100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>222100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>201300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>200500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>116400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>171700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>199700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>182400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>167700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>189800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>189900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>174400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>148500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>166200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>162500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>154900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>139100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>168900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>156800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>149400</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,64 +1180,70 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>25000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>6000</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="3">
-        <v>32700</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3">
+        <v>32700</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>-4100</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
+      <c r="U14" s="3">
+        <v>-4100</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
@@ -1218,8 +1257,14 @@
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>551400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>605800</v>
+      </c>
+      <c r="F17" s="3">
         <v>532100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>521800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>490400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>469400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>435800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>411200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>281100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>352000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>429500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>417600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>390200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>449300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>426700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>410800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>361500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>374300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>380500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>358900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>340800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>369300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>356400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>342700</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>52700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>78800</v>
+      </c>
+      <c r="F18" s="3">
         <v>39500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>54100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>34400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>50100</v>
       </c>
       <c r="H18" s="3">
         <v>34400</v>
       </c>
       <c r="I18" s="3">
+        <v>50100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>34400</v>
+      </c>
+      <c r="K18" s="3">
         <v>47900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>4400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>15300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>46400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>29600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>23400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>4500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>40900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>28500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>23200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>45700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>33100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>34300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>16300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>43400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>33600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,150 +1547,164 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F20" s="3">
         <v>-700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>1100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>6800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1900</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-1600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>1500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>2100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>62700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>90500</v>
+      </c>
+      <c r="F21" s="3">
         <v>48200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>64500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>42900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>60100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>49500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>56300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>14400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>22600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>55300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>39100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>30700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>12800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>48100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>34900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>32200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>53000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>40200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>41800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>26100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>50600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>41300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>40300</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1636,10 +1715,10 @@
         <v>200</v>
       </c>
       <c r="F22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H22" s="3">
         <v>300</v>
@@ -1648,197 +1727,215 @@
         <v>300</v>
       </c>
       <c r="J22" s="3">
+        <v>300</v>
+      </c>
+      <c r="K22" s="3">
+        <v>300</v>
+      </c>
+      <c r="L22" s="3">
         <v>500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>400</v>
-      </c>
-      <c r="L22" s="3">
-        <v>300</v>
-      </c>
-      <c r="M22" s="3">
-        <v>300</v>
       </c>
       <c r="N22" s="3">
         <v>300</v>
       </c>
       <c r="O22" s="3">
+        <v>300</v>
+      </c>
+      <c r="P22" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q22" s="3">
         <v>400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>500</v>
-      </c>
-      <c r="R22" s="3">
-        <v>100</v>
-      </c>
-      <c r="S22" s="3">
-        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>100</v>
       </c>
       <c r="U22" s="3">
+        <v>100</v>
+      </c>
+      <c r="V22" s="3">
+        <v>100</v>
+      </c>
+      <c r="W22" s="3">
         <v>200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>77700</v>
+      </c>
+      <c r="F23" s="3">
         <v>38700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>55000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>34100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>51400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>40900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>47700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>5800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>14000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>46900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>31200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>23100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>4500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>39900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>26400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>24600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>44800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>32300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>33600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>18200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>42500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>33500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>33000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>20100</v>
+      </c>
+      <c r="F24" s="3">
         <v>9600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>14700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>8800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>13500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>11300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>12400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>10600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>12200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>8300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>5100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>2800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>10700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>6000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>5600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>14400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>10500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>10400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>6500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>14200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>9800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>57600</v>
+      </c>
+      <c r="F26" s="3">
         <v>29100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>40400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>25300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>38000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>29600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>35300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>4700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>3400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>34700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>22900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>18000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>29200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>20300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>19000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>30400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>21800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>23200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>11700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>28200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>23600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>57500</v>
+      </c>
+      <c r="F27" s="3">
         <v>28500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>39500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>24600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>37500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>29200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>34900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>4800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>2300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>34500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>22600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>18000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>28600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>19900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>18200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>30000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>21500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>22800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>11600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>27900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>23200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2153,11 +2274,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2171,29 +2292,35 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>4000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>-9500</v>
       </c>
-      <c r="U29" s="3" t="s">
+      <c r="W29" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W29" s="3">
-        <v>0</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3" t="s">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,150 +2467,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>900</v>
+      </c>
+      <c r="F32" s="3">
         <v>700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-1100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-6800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1900</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>1600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-1500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-2100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>57500</v>
+      </c>
+      <c r="F33" s="3">
         <v>28500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>39500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>24600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>37500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>29200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>34900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>4800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>2300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>34500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>22600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>18000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>28600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>19900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>18200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>34000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>12000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>22800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>11600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>27900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>23200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>57500</v>
+      </c>
+      <c r="F35" s="3">
         <v>28500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>39500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>24600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>37500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>29200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>34900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>4800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>2300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>34500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>22600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>18000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>28600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>19900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>18200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>34000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>12000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>22800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>11600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>27900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>23200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44772</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="F38" s="2">
         <v>44583</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44492</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44401</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44310</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44219</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44128</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44037</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43946</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43855</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43764</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43673</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43582</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43491</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43400</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43309</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43218</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43127</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43036</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42945</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42854</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42763</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,647 +2919,703 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>238200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>245600</v>
+      </c>
+      <c r="F41" s="3">
         <v>236700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>293300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>333000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>391200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>390300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>350900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>334200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>261600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>166300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>117600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>111600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>129800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>101600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>93900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>134200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>134500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>135300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>122300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>119600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>141900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>110300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>105600</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E42" s="3">
+        <v>17400</v>
+      </c>
+      <c r="F42" s="3">
         <v>16200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>17900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>20000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>20600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>20200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>18400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>11800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>22000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>22400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>23300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>29500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>21400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>18000</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>16300</v>
-      </c>
-      <c r="R42" s="3">
-        <v>15500</v>
       </c>
       <c r="S42" s="3">
         <v>16300</v>
       </c>
       <c r="T42" s="3">
+        <v>15500</v>
+      </c>
+      <c r="U42" s="3">
+        <v>16300</v>
+      </c>
+      <c r="V42" s="3">
         <v>16100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>15200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>16700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>16900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>15700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>156000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>183700</v>
+      </c>
+      <c r="F43" s="3">
         <v>314700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>174000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>141600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>139300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>129300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>128300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>97400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>99400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>153700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>155100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>134400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>143300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>149500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>150500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>139000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>154100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>146500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>145200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>134900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>150800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>143200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>331800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>303200</v>
+      </c>
+      <c r="F44" s="3">
         <v>315600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>285800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>264500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>226100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>212100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>188700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>180400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>181600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>198600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>205100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>197700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>196900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>219200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>214900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>195000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>184800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>186300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>180100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>178500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>175100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>193700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>186700</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>177700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>201900</v>
+      </c>
+      <c r="F45" s="3">
         <v>79100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>194200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>178200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>148900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>136300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>110000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>80200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>61800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>62300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>60500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>58100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>49800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>59100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>61800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>42200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>28500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>29500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>33400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>39100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>32700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>35200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>32900</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>919800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>951800</v>
+      </c>
+      <c r="F46" s="3">
         <v>962300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>965200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>937300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>926200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>888200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>796400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>704000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>626300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>603300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>561600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>531300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>541100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>547400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>537400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>525900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>518200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>513700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>496100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>488900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>517400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>498100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>485700</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E47" s="3">
+        <v>34200</v>
+      </c>
+      <c r="F47" s="3">
         <v>36400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>17900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>35600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>34800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>32800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>32000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>26000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>26100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>28400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>36200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>33000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>36100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>39700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>38000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>41300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>43100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>44900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>45200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>41600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>36800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>34000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>35200</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>671700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>658900</v>
+      </c>
+      <c r="F48" s="3">
         <v>639700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>578900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>571700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>563000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>550400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>553500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>523100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>533400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>531000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>512700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>517200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>200500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>195700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>195300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>188100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>180900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>174900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>171500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>171100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>169100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>169100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>170600</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>239600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>228600</v>
+      </c>
+      <c r="F49" s="3">
         <v>229500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>210800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>205800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>206200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>206200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>205500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>190200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>189700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>214600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>214600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>214300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>215800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>215000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>212600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>92400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>93400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>94300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>92600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>93200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>92700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>92600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,79 +3762,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>58700</v>
+      </c>
+      <c r="F52" s="3">
         <v>61700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>79300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>59100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>56100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>62600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>63100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>60500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>59400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>65400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>67200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>66400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>66300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>63700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>68800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>58900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>57300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>65700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>76100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>73800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>72800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>70900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1919000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1932100</v>
+      </c>
+      <c r="F54" s="3">
         <v>1929600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1852100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1809500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1786300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1740200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1650300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1503700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1434900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1442600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1392300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1362200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1059800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1061500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1052100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>906600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>893000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>893500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>881500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>868500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>888900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>864600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>823000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,129 +4055,137 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>123800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>104000</v>
+      </c>
+      <c r="F57" s="3">
         <v>117200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>120000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>118100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>94200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>96400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>89300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>61900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>55500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>68000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>71900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>62900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>65400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>72400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>75100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>62900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>62400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>66700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>53400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>47400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>51300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>51000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>46900</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
+      <c r="E58" s="3">
+        <v>100</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>50000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>75000</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>20200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>35200</v>
-      </c>
-      <c r="R58" s="3">
-        <v>200</v>
-      </c>
-      <c r="S58" s="3">
-        <v>200</v>
       </c>
       <c r="T58" s="3">
         <v>200</v>
@@ -3936,152 +4203,170 @@
         <v>200</v>
       </c>
       <c r="Y58" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>515200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>571500</v>
+      </c>
+      <c r="F59" s="3">
         <v>596200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>560600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>534200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>517500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>454500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>401100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>312600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>219600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>260400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>245700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>232800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>173100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>176300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>176100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>127700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>118700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>131200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>133300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>126900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>147200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>138900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>116500</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>639100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>675700</v>
+      </c>
+      <c r="F60" s="3">
         <v>713500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>680500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>652300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>611700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>550800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>490300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>424500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>350200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>328500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>317600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>295900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>238600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>268900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>286400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>190800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>181300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>198100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>186900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>174500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>198700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>190100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>163600</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4089,20 +4374,20 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>500</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -4125,19 +4410,19 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>200</v>
-      </c>
-      <c r="T61" s="3">
-        <v>200</v>
-      </c>
-      <c r="U61" s="3">
-        <v>300</v>
       </c>
       <c r="V61" s="3">
         <v>200</v>
@@ -4146,84 +4431,96 @@
         <v>300</v>
       </c>
       <c r="X61" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y61" s="3">
         <v>300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA61" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>435800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>436400</v>
+      </c>
+      <c r="F62" s="3">
         <v>431600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>385900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>392700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>392000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>401300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>405400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>364200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>368400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>384600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>364000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>368200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>124200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>120700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>116400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>89000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>86200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>92300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>90000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>90800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>88800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>87200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1083700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1121400</v>
+      </c>
+      <c r="F66" s="3">
         <v>1154200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1074800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1054000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1012800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>960700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>903600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>796200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>734100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>728700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>697100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>678900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>377300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>404200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>416300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>292400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>280800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>303600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>289300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>277200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>298900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>288400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>261300</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>456100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>431200</v>
+      </c>
+      <c r="F72" s="3">
         <v>395600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>398300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>379900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>399000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>401100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>378400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>346800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>343600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>353400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>337000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>329100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>325800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>330500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>309500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>296300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>291600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>271900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>279300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>280300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>284700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>272600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>258900</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>835300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>810700</v>
+      </c>
+      <c r="F76" s="3">
         <v>775400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>777300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>755500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>773500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>779400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>746800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>707600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>700800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>713900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>695200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>683300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>682500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>657300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>635800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>614200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>612200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>589900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>592300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>591300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>589900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>576200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>561700</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44772</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="F80" s="2">
         <v>44583</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44492</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44401</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44310</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44219</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44128</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44037</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43946</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43855</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43764</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43673</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43582</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43491</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43400</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43309</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43218</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43127</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43036</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42945</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42854</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42763</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>57500</v>
+      </c>
+      <c r="F81" s="3">
         <v>28500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>39500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>24600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>37500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>29200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>34900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>4800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>2300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>34500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>22600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>18000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>28600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>19900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>18200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>34000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>12000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>22800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>11600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>27900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>23200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,31 +5812,33 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E83" s="3">
+        <v>12600</v>
+      </c>
+      <c r="F83" s="3">
         <v>9400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>9200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>8600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>8400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>8300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>8200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>8100</v>
       </c>
       <c r="K83" s="3">
         <v>8200</v>
@@ -5450,28 +5847,28 @@
         <v>8100</v>
       </c>
       <c r="M83" s="3">
+        <v>8200</v>
+      </c>
+      <c r="N83" s="3">
+        <v>8100</v>
+      </c>
+      <c r="O83" s="3">
         <v>7600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>7300</v>
-      </c>
-      <c r="O83" s="3">
-        <v>8000</v>
-      </c>
-      <c r="P83" s="3">
-        <v>7600</v>
       </c>
       <c r="Q83" s="3">
         <v>8000</v>
       </c>
       <c r="R83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="S83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="T83" s="3">
         <v>7500</v>
-      </c>
-      <c r="S83" s="3">
-        <v>8100</v>
-      </c>
-      <c r="T83" s="3">
-        <v>7800</v>
       </c>
       <c r="U83" s="3">
         <v>8100</v>
@@ -5480,16 +5877,22 @@
         <v>7800</v>
       </c>
       <c r="W83" s="3">
+        <v>8100</v>
+      </c>
+      <c r="X83" s="3">
         <v>7800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
+        <v>7800</v>
+      </c>
+      <c r="Z83" s="3">
         <v>7300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>33800</v>
+      </c>
+      <c r="F89" s="3">
         <v>29800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>9300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>6200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>60100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>54100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>89400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>106300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>44500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>66100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>34400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>19300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>59300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>45400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>13900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>32200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>24600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>40000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>31700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>19500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>55000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>38900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,79 +6380,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-25300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-14000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-19300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-11200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-11300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-5600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-9800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-10600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-12500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-10700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-12300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-12700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-11100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-15900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-12200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-7800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-7200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-9100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-9600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-10600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6607,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-44600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-13000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-19500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-5000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-20100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-16800</v>
-      </c>
-      <c r="J94" s="3">
-        <v>1200</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-2800</v>
       </c>
       <c r="L94" s="3">
         <v>1200</v>
       </c>
       <c r="M94" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="N94" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O94" s="3">
         <v>-14000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-18300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-8200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-87000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-15200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-10000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-8100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-8000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-29100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-7200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-23900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-19700</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,79 +6717,87 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="F96" s="3">
         <v>-7200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-6600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-6800</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-6800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-6500</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-3200</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-6500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-6500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-6000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-6100</v>
       </c>
       <c r="P96" s="3">
         <v>-6100</v>
       </c>
       <c r="Q96" s="3">
-        <v>-5700</v>
+        <v>-6100</v>
       </c>
       <c r="R96" s="3">
-        <v>-5600</v>
+        <v>-6100</v>
       </c>
       <c r="S96" s="3">
         <v>-5700</v>
       </c>
       <c r="T96" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="U96" s="3">
         <v>-5700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="W96" s="3">
         <v>-5300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-5300</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-5400</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-5400</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,217 +7021,241 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-41600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-36100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-44700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-53200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-1500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-51100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-35300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>62700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-18500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-15000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-19900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-22500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-26300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>31700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-15600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-14800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-20300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-24600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-16500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-16500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-10300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>1200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>1300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-2300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-1600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>1300</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>300</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F102" s="3">
         <v>-56600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-39600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-58500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>39600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>16700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>73200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>95300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>48700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>5900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-18200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>28200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>7700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-40700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>12900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-25300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>31500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>4800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-11600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LZB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LZB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>LZB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,372 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44863</v>
+      </c>
+      <c r="F7" s="2">
         <v>44772</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44583</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44492</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44401</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44310</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44219</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44128</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44037</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43946</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43764</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43673</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43582</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43491</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43400</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43309</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43218</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43127</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43036</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42945</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42854</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42763</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>572700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>611300</v>
+      </c>
+      <c r="F8" s="3">
         <v>604100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>684600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>571600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>575900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>524800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>519500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>470200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>459100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>285500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>367300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>475900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>447200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>413600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>453800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>467600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>439300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>384700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>420000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>413600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>393200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>357100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>412700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>390000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>376600</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>326300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>350600</v>
+      </c>
+      <c r="F9" s="3">
         <v>362600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>413300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>352200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>352600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>322700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>297400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>268900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>258600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>169100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>195600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>276200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>264800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>245900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>264000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>277700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>264900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>236200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>253800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>251100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>238300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>218000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>243800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>233200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>227200</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>246400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>260700</v>
+      </c>
+      <c r="F10" s="3">
         <v>241500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>271300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>219400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>223300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>202100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>222100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>201300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>200500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>116400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>171700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>199700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>182400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>167700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>189800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>189900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>174400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>148500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>166200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>162500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>154900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>139100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>168900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>156800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>149400</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1058,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1137,14 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,70 +1220,76 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>25000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>6000</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>32700</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
+      <c r="S14" s="3">
+        <v>32700</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>-4100</v>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
+      <c r="W14" s="3">
+        <v>-4100</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
@@ -1263,8 +1303,14 @@
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1386,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1418,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>529900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>549400</v>
+      </c>
+      <c r="F17" s="3">
         <v>551400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>605800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>532100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>521800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>490400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>469400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>435800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>411200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>281100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>352000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>429500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>417600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>390200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>449300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>426700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>410800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>361500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>374300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>380500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>358900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>340800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>369300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>356400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>342700</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>42800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>61900</v>
+      </c>
+      <c r="F18" s="3">
         <v>52700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>78800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>39500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>54100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>34400</v>
-      </c>
-      <c r="I18" s="3">
-        <v>50100</v>
       </c>
       <c r="J18" s="3">
         <v>34400</v>
       </c>
       <c r="K18" s="3">
+        <v>50100</v>
+      </c>
+      <c r="L18" s="3">
+        <v>34400</v>
+      </c>
+      <c r="M18" s="3">
         <v>47900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>4400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>15300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>46400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>29600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>23400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>4500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>40900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>28500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>23200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>45700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>33100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>34300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>16300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>43400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>33600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,170 +1615,184 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>6800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1900</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-1600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>1500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>2100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>72900</v>
+      </c>
+      <c r="F21" s="3">
         <v>62700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>90500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>48200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>64500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>42900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>60100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>49500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>56300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>14400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>22600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>55300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>39100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>30700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>12800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>48100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>34900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>32200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>53000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>40200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>41800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>26100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>50600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>41300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>40300</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
@@ -1721,10 +1801,10 @@
         <v>200</v>
       </c>
       <c r="H22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J22" s="3">
         <v>300</v>
@@ -1733,209 +1813,227 @@
         <v>300</v>
       </c>
       <c r="L22" s="3">
+        <v>300</v>
+      </c>
+      <c r="M22" s="3">
+        <v>300</v>
+      </c>
+      <c r="N22" s="3">
         <v>500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>400</v>
-      </c>
-      <c r="N22" s="3">
-        <v>300</v>
-      </c>
-      <c r="O22" s="3">
-        <v>300</v>
       </c>
       <c r="P22" s="3">
         <v>300</v>
       </c>
       <c r="Q22" s="3">
+        <v>300</v>
+      </c>
+      <c r="R22" s="3">
+        <v>300</v>
+      </c>
+      <c r="S22" s="3">
         <v>400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>500</v>
-      </c>
-      <c r="T22" s="3">
-        <v>100</v>
-      </c>
-      <c r="U22" s="3">
-        <v>100</v>
       </c>
       <c r="V22" s="3">
         <v>100</v>
       </c>
       <c r="W22" s="3">
+        <v>100</v>
+      </c>
+      <c r="X22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y22" s="3">
         <v>200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>600</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>43700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>63100</v>
+      </c>
+      <c r="F23" s="3">
         <v>53000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>77700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>38700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>55000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>34100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>51400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>40900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>47700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>5800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>14000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>46900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>31200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>23100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>4500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>39900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>26400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>24600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>44800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>32300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>33600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>18200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>42500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>33500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>33000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>16300</v>
+      </c>
+      <c r="F24" s="3">
         <v>14100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>20100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>9600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>14700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>8800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>13500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>11300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>12400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>10600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>12200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>8300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>5100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>2800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>10700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>6000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>5600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>14400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>10500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>10400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>6500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>14200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>9800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2109,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>46800</v>
+      </c>
+      <c r="F26" s="3">
         <v>38900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>57600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>29100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>40400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>25300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>38000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>29600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>35300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>4700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>3400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>34700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>22900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>18000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>1700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>29200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>20300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>19000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>30400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>21800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>23200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>11700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>28200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>23600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>46100</v>
+      </c>
+      <c r="F27" s="3">
         <v>38500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>57500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>28500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>39500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>24600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>37500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>29200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>34900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>4800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>2300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>34500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>22600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>18000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>1500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>28600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>19900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>18200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>30000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>21500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>22800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>11600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>27900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>23200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2358,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2280,11 +2402,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2298,29 +2420,35 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>4000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="3">
         <v>-9500</v>
       </c>
-      <c r="W29" s="3" t="s">
+      <c r="Y29" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y29" s="3">
-        <v>0</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA29" s="3" t="s">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2524,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2607,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-6800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1900</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>1600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-1500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>46100</v>
+      </c>
+      <c r="F33" s="3">
         <v>38500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>57500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>28500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>39500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>24600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>37500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>29200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>34900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>4800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>2300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>34500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>22600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>18000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>1500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>28600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>19900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>18200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>34000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>12000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>22800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>11600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>27900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>23200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2856,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>46100</v>
+      </c>
+      <c r="F35" s="3">
         <v>38500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>57500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>28500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>39500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>24600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>37500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>29200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>34900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>4800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>2300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>34500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>22600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>18000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>1500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>28600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>19900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>18200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>34000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>12000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>22800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>11600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>27900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>23200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44863</v>
+      </c>
+      <c r="F38" s="2">
         <v>44772</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44583</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44492</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44401</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44310</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44219</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44128</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44037</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43946</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43764</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43673</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43582</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43491</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43400</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43309</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43218</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43127</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43036</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42945</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42854</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42763</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3062,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,701 +3093,757 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>280800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>204600</v>
+      </c>
+      <c r="F41" s="3">
         <v>238200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>245600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>236700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>293300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>333000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>391200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>390300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>350900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>334200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>261600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>166300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>117600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>111600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>129800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>101600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>93900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>134200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>134500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>135300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>122300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>119600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>141900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>110300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>105600</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E42" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F42" s="3">
         <v>16100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>17400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>16200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>17900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>20000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>20600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>20200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>18400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>11800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>22000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>22400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>23300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>29500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>21400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>18000</v>
-      </c>
-      <c r="S42" s="3">
-        <v>16300</v>
-      </c>
-      <c r="T42" s="3">
-        <v>15500</v>
       </c>
       <c r="U42" s="3">
         <v>16300</v>
       </c>
       <c r="V42" s="3">
+        <v>15500</v>
+      </c>
+      <c r="W42" s="3">
+        <v>16300</v>
+      </c>
+      <c r="X42" s="3">
         <v>16100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>15200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>16700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>16900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>15700</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>198600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>160000</v>
+      </c>
+      <c r="F43" s="3">
         <v>156000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>183700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>314700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>174000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>141600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>139300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>129300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>128300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>97400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>99400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>153700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>155100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>134400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>143300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>149500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>150500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>139000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>154100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>146500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>145200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>134900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>150800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>143200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>303600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>342700</v>
+      </c>
+      <c r="F44" s="3">
         <v>331800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>303200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>315600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>285800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>264500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>226100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>212100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>188700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>180400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>181600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>198600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>205100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>197700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>196900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>219200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>214900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>195000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>184800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>186300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>180100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>178500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>175100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>193700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>186700</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>53800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>138000</v>
+      </c>
+      <c r="F45" s="3">
         <v>177700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>201900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>79100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>194200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>178200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>148900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>136300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>110000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>80200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>61800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>62300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>60500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>58100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>49800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>59100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>61800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>42200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>28500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>29500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>33400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>39100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>32700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>35200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>32900</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>849000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>857300</v>
+      </c>
+      <c r="F46" s="3">
         <v>919800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>951800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>962300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>965200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>937300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>926200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>888200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>796400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>704000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>626300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>603300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>561600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>531300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>541100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>547400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>537400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>525900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>518200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>513700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>496100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>488900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>517400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>498100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>485700</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E47" s="3">
+        <v>30200</v>
+      </c>
+      <c r="F47" s="3">
         <v>32900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>34200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>36400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>17900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>35600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>34800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>32800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>32000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>26000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>26100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>28400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>36200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>33000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>36100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>39700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>38000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>41300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>43100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>44900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>45200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>41600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>36800</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>34000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>35200</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>667400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>673700</v>
+      </c>
+      <c r="F48" s="3">
         <v>671700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>658900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>639700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>578900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>571700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>563000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>550400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>553500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>523100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>533400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>531000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>512700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>517200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>200500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>195700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>195300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>188100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>180900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>174900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>171500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>171100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>169100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>169100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>170600</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>244000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>242100</v>
+      </c>
+      <c r="F49" s="3">
         <v>239600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>228600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>229500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>210800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>205800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>206200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>206200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>205500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>190200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>189700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>214600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>214600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>214300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>215800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>215000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>212600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>92400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>93400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>94300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>92600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>93200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>92700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>92600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3919,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +4002,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>58700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>54200</v>
+      </c>
+      <c r="F52" s="3">
         <v>55000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>58700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>61700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>79300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>59100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>56100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>62600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>63100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>60500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>59400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>65400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>67200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>66400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>66300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>63700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>68800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>58900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>57300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>65700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>76100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>73800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>72800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>70900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4168,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1846400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1857500</v>
+      </c>
+      <c r="F54" s="3">
         <v>1919000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1932100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1929600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1852100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1809500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1786300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1740200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1650300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1503700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1434900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1442600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1392300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1362200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1059800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1061500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1052100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>906600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>893000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>893500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>881500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>868500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>888900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>864600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>823000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4286,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,141 +4317,149 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>86900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>106600</v>
+      </c>
+      <c r="F57" s="3">
         <v>123800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>104000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>117200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>120000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>118100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>94200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>96400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>89300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>61900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>55500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>68000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>71900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>62900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>65400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>72400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>75100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>62900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>62400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>66700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>53400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>47400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>51300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>51000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>46900</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3">
-        <v>100</v>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
+      <c r="G58" s="3">
+        <v>100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>50000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>75000</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>20200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>35200</v>
-      </c>
-      <c r="T58" s="3">
-        <v>200</v>
-      </c>
-      <c r="U58" s="3">
-        <v>200</v>
       </c>
       <c r="V58" s="3">
         <v>200</v>
@@ -4209,164 +4477,182 @@
         <v>200</v>
       </c>
       <c r="AA58" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>422500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>444100</v>
+      </c>
+      <c r="F59" s="3">
         <v>515200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>571500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>596200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>560600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>534200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>517500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>454500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>401100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>312600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>219600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>260400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>245700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>232800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>173100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>176300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>176100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>127700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>118700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>131200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>133300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>126900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>147200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>138900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>116500</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>509400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>550700</v>
+      </c>
+      <c r="F60" s="3">
         <v>639100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>675700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>713500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>680500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>652300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>611700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>550800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>490300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>424500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>350200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>328500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>317600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>295900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>238600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>268900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>286400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>190800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>181300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>198100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>186900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>174500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>198700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>190100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>163600</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4374,26 +4660,26 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>400</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>500</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -4416,19 +4702,19 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>200</v>
-      </c>
-      <c r="V61" s="3">
-        <v>200</v>
-      </c>
-      <c r="W61" s="3">
-        <v>300</v>
       </c>
       <c r="X61" s="3">
         <v>200</v>
@@ -4437,90 +4723,102 @@
         <v>300</v>
       </c>
       <c r="Z61" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA61" s="3">
         <v>300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC61" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>420500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>423000</v>
+      </c>
+      <c r="F62" s="3">
         <v>435800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>436400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>431600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>385900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>392700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>392000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>401300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>405400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>364200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>368400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>384600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>364000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>368200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>124200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>120700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>116400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>89000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>86200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>92300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>90000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>90800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>88800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>87200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4894,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4977,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5060,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>940300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>982900</v>
+      </c>
+      <c r="F66" s="3">
         <v>1083700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1121400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1154200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1074800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1054000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1012800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>960700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>903600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>796200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>734100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>728700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>697100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>678900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>377300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>404200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>416300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>292400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>280800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>303600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>289300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>277200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>298900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>288400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>261300</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5178,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5257,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5340,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5423,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5506,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>518700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>495000</v>
+      </c>
+      <c r="F72" s="3">
         <v>456100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>431200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>395600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>398300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>379900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>399000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>401100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>378400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>346800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>343600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>353400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>337000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>329100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>325800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>330500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>309500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>296300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>291600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>271900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>279300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>280300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>284700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>272600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>258900</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5672,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5755,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5838,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>906100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>874700</v>
+      </c>
+      <c r="F76" s="3">
         <v>835300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>810700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>775400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>777300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>755500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>773500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>779400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>746800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>707600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>700800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>713900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>695200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>683300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>682500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>657300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>635800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>614200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>612200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>589900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>592300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>591300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>589900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>576200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>561700</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6004,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44863</v>
+      </c>
+      <c r="F80" s="2">
         <v>44772</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44583</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44492</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44401</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44310</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44219</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44128</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44037</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43946</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43764</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43673</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43582</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43491</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43400</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43309</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43218</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43127</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43036</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42945</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42854</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42763</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>46100</v>
+      </c>
+      <c r="F81" s="3">
         <v>38500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>57500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>28500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>39500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>24600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>37500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>29200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>34900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>4800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>2300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>34500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>22600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>18000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>1500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>28600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>19900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>18200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>34000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>12000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>22800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>11600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>27900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>23200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,37 +6210,39 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F83" s="3">
         <v>9500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>12600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>9400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>9200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>8600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>8400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>8300</v>
-      </c>
-      <c r="K83" s="3">
-        <v>8200</v>
-      </c>
-      <c r="L83" s="3">
-        <v>8100</v>
       </c>
       <c r="M83" s="3">
         <v>8200</v>
@@ -5853,28 +6251,28 @@
         <v>8100</v>
       </c>
       <c r="O83" s="3">
+        <v>8200</v>
+      </c>
+      <c r="P83" s="3">
+        <v>8100</v>
+      </c>
+      <c r="Q83" s="3">
         <v>7600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>7300</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>8000</v>
-      </c>
-      <c r="R83" s="3">
-        <v>7600</v>
       </c>
       <c r="S83" s="3">
         <v>8000</v>
       </c>
       <c r="T83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="U83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="V83" s="3">
         <v>7500</v>
-      </c>
-      <c r="U83" s="3">
-        <v>8100</v>
-      </c>
-      <c r="V83" s="3">
-        <v>7800</v>
       </c>
       <c r="W83" s="3">
         <v>8100</v>
@@ -5883,16 +6281,22 @@
         <v>7800</v>
       </c>
       <c r="Y83" s="3">
+        <v>8100</v>
+      </c>
+      <c r="Z83" s="3">
         <v>7800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
+        <v>7800</v>
+      </c>
+      <c r="AB83" s="3">
         <v>7300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6372,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6455,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6538,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6621,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6704,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>96100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F89" s="3">
         <v>33100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>33800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>29800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>9300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>6200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>60100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>54100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>89400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>106300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>44500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>66100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>34400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>19300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>59300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>45400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>13900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>32200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>24600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>40000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>31700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>19500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>55000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>38900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6822,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-21000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-18000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-25300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-14000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-19300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-11200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-11300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-5600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-9800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-10600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-12500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-10700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-12700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-8800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-11100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-15900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-12200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-7800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-7200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-9100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-9600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-10600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6984,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +7067,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-25900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-44600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-13000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-19500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-5000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-20100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-16800</v>
-      </c>
-      <c r="L94" s="3">
-        <v>1200</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-2800</v>
       </c>
       <c r="N94" s="3">
         <v>1200</v>
       </c>
       <c r="O94" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="P94" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-14000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-18300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-8200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-12300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-87000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-15200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-10000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-8100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-8000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-29100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-7200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-23900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-19700</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,85 +7185,93 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-7100</v>
+        <v>-7900</v>
       </c>
       <c r="E96" s="3">
         <v>-7100</v>
       </c>
       <c r="F96" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="H96" s="3">
         <v>-7200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-6600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-6800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-6800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-6500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-3200</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-6500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-6500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-6000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-6100</v>
       </c>
       <c r="R96" s="3">
         <v>-6100</v>
       </c>
       <c r="S96" s="3">
-        <v>-5700</v>
+        <v>-6100</v>
       </c>
       <c r="T96" s="3">
-        <v>-5600</v>
+        <v>-6100</v>
       </c>
       <c r="U96" s="3">
         <v>-5700</v>
       </c>
       <c r="V96" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="W96" s="3">
         <v>-5700</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-5300</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-5300</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-5400</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AB96" s="3">
         <v>-5400</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AC96" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7347,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7430,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7513,259 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-13800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-22300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-41600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-36100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-44700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-53200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-51100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-35300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>62700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-18500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-15000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-19900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-22500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-26300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>31700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-15600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-14800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-20300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-24600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-16500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-16500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-10300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F101" s="3">
         <v>-800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-1300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>1200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>1300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-2300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-1600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>1300</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
         <v>900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>300</v>
       </c>
-      <c r="Z101" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>76200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-33500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-7400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>8900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-56600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-39600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-58500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>39600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>16700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>73200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>95300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>48700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>5900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-18200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>28200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>7700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-40700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>12900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-25300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>31500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>4800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-11600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LZB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LZB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>LZB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,372 +665,397 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45136</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45045</v>
+      </c>
+      <c r="F7" s="2">
         <v>44954</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44863</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44772</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44583</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44492</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44401</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44310</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44219</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44128</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44037</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43946</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43855</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43764</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43673</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43582</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43491</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43400</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43309</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43218</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43127</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43036</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42945</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42854</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42763</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>481700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>561300</v>
+      </c>
+      <c r="F8" s="3">
         <v>572700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>611300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>604100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>684600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>571600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>575900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>524800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>519500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>470200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>459100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>285500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>367300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>475900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>447200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>413600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>453800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>467600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>439300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>384700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>420000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>413600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>393200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>357100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>412700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>390000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>376600</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>275900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>301200</v>
+      </c>
+      <c r="F9" s="3">
         <v>326300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>350600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>362600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>413300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>352200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>352600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>322700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>297400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>268900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>258600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>169100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>195600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>276200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>264800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>245900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>264000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>277700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>264900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>236200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>253800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>251100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>238300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>218000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>243800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>233200</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>227200</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>205800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>260100</v>
+      </c>
+      <c r="F10" s="3">
         <v>246400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>260700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>241500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>271300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>219400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>223300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>202100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>222100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>201300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>200500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>116400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>171700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>199700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>182400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>167700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>189800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>189900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>174400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>148500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>166200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>162500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>154900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>139100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>168900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>156800</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>149400</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1060,8 +1085,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1143,8 +1170,14 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,76 +1259,82 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
         <v>25000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>6000</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S14" s="3">
-        <v>32700</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
+      <c r="U14" s="3">
+        <v>32700</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>-4100</v>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>8</v>
+      <c r="Y14" s="3">
+        <v>-4100</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>8</v>
@@ -1309,8 +1348,14 @@
       <c r="AC14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1471,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>447100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>507200</v>
+      </c>
+      <c r="F17" s="3">
         <v>529900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>549400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>551400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>605800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>532100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>521800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>490400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>469400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>435800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>411200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>281100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>352000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>429500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>417600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>390200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>449300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>426700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>410800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>361500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>374300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>380500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>358900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>340800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>369300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>356400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>342700</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>54100</v>
+      </c>
+      <c r="F18" s="3">
         <v>42800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>61900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>52700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>78800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>39500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>54100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>34400</v>
-      </c>
-      <c r="K18" s="3">
-        <v>50100</v>
       </c>
       <c r="L18" s="3">
         <v>34400</v>
       </c>
       <c r="M18" s="3">
+        <v>50100</v>
+      </c>
+      <c r="N18" s="3">
+        <v>34400</v>
+      </c>
+      <c r="O18" s="3">
         <v>47900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>4400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>15300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>46400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>29600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>23400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>4500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>40900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>28500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>23200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>45700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>33100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>34300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>16300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>43400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>33600</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,174 +1682,188 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>6800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>1900</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-1600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>1500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>2100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>500</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>48300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>57000</v>
+      </c>
+      <c r="F21" s="3">
         <v>53900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>72900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>62700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>90500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>48200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>64500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>42900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>60100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>49500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>56300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>14400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>22600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>55300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>39100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>30700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>12800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>48100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>34900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>32200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>53000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>40200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>41800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>26100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>50600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>41300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>40300</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1795,10 +1874,10 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
@@ -1807,10 +1886,10 @@
         <v>200</v>
       </c>
       <c r="J22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L22" s="3">
         <v>300</v>
@@ -1819,221 +1898,239 @@
         <v>300</v>
       </c>
       <c r="N22" s="3">
+        <v>300</v>
+      </c>
+      <c r="O22" s="3">
+        <v>300</v>
+      </c>
+      <c r="P22" s="3">
         <v>500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>400</v>
-      </c>
-      <c r="P22" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>300</v>
       </c>
       <c r="R22" s="3">
         <v>300</v>
       </c>
       <c r="S22" s="3">
+        <v>300</v>
+      </c>
+      <c r="T22" s="3">
+        <v>300</v>
+      </c>
+      <c r="U22" s="3">
         <v>400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>500</v>
-      </c>
-      <c r="V22" s="3">
-        <v>100</v>
-      </c>
-      <c r="W22" s="3">
-        <v>100</v>
       </c>
       <c r="X22" s="3">
         <v>100</v>
       </c>
       <c r="Y22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA22" s="3">
         <v>200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>200</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>300</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>600</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AE22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>46000</v>
+      </c>
+      <c r="F23" s="3">
         <v>43700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>63100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>53000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>77700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>38700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>55000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>34100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>51400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>40900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>47700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>5800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>14000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>46900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>31200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>23100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>4500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>39900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>26400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>24600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>44800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>32300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>33600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>18200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>42500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>33500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>33000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>11400</v>
+      </c>
+      <c r="F24" s="3">
         <v>12100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>16300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>14100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>20100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>9600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>14700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>8800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>13500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>11300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>12400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>10600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>12200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>8300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>5100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>2800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>10700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>6000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>5600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>14400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>10500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>10400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>6500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>14200</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>9800</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2212,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>34600</v>
+      </c>
+      <c r="F26" s="3">
         <v>31600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>46800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>38900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>57600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>29100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>40400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>25300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>38000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>29600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>35300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>4700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>3400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>34700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>22900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>18000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>1700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>29200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>20300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>19000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>30400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>21800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>23200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>11700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>28200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>23600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>34400</v>
+      </c>
+      <c r="F27" s="3">
         <v>31700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>46100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>38500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>57500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>28500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>39500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>24600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>37500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>29200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>34900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>4800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>2300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>34500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>22600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>18000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>1500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>28600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>19900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>18200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>30000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>21500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>22800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>11600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>27900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>23200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2408,11 +2529,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2426,29 +2547,35 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3">
         <v>4000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Z29" s="3">
         <v>-9500</v>
       </c>
-      <c r="Y29" s="3" t="s">
+      <c r="AA29" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA29" s="3">
-        <v>0</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC29" s="3" t="s">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,174 +2746,192 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-6800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-1900</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>1600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-1500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>-500</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>34400</v>
+      </c>
+      <c r="F33" s="3">
         <v>31700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>46100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>38500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>57500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>28500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>39500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>24600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>37500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>29200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>34900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>4800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>2300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>34500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>22600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>18000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>1500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>28600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>19900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>18200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>34000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>12000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>22800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>11600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>27900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>23200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +3013,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>34400</v>
+      </c>
+      <c r="F35" s="3">
         <v>31700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>46100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>38500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>57500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>28500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>39500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>24600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>37500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>29200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>34900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>4800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>2300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>34500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>22600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>18000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>1500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>28600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>19900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>18200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>34000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>12000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>22800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>11600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>27900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>23200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45136</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45045</v>
+      </c>
+      <c r="F38" s="2">
         <v>44954</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44863</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44772</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44583</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44492</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44401</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44310</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44219</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44128</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44037</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43946</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43855</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43764</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43673</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43582</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43491</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43400</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43309</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43218</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43127</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43036</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42945</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42854</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42763</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,755 +3266,811 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>336400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>343400</v>
+      </c>
+      <c r="F41" s="3">
         <v>280800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>204600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>238200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>245600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>236700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>293300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>333000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>391200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>390300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>350900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>334200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>261600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>166300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>117600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>111600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>129800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>101600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>93900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>134200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>134500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>135300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>122300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>119600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>141900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>110300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>105600</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E42" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F42" s="3">
         <v>12300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>12000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>16100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>17400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>16200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>17900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>20000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>20600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>20200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>18400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>11800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>22000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>22400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>23300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>29500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>21400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>18000</v>
-      </c>
-      <c r="U42" s="3">
-        <v>16300</v>
-      </c>
-      <c r="V42" s="3">
-        <v>15500</v>
       </c>
       <c r="W42" s="3">
         <v>16300</v>
       </c>
       <c r="X42" s="3">
+        <v>15500</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>16300</v>
+      </c>
+      <c r="Z42" s="3">
         <v>16100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>15200</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>16700</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>16900</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>15700</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AE42" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>110900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>125500</v>
+      </c>
+      <c r="F43" s="3">
         <v>198600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>160000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>156000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>183700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>314700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>174000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>141600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>139300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>129300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>128300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>97400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>99400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>153700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>155100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>134400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>143300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>149500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>150500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>139000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>154100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>146500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>145200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>134900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>150800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>143200</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>269400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>276300</v>
+      </c>
+      <c r="F44" s="3">
         <v>303600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>342700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>331800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>303200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>315600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>285800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>264500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>226100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>212100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>188700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>180400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>181600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>198600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>205100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>197700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>196900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>219200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>214900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>195000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>184800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>186300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>180100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>178500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>175100</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>193700</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AE44" s="3">
         <v>186700</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>103000</v>
+      </c>
+      <c r="F45" s="3">
         <v>53800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>138000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>177700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>201900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>79100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>194200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>178200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>148900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>136300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>110000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>80200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>61800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>62300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>60500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>58100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>49800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>59100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>61800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>42200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>28500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>29500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>33400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>39100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>32700</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>35200</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>32900</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>829500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>854600</v>
+      </c>
+      <c r="F46" s="3">
         <v>849000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>857300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>919800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>951800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>962300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>965200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>937300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>926200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>888200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>796400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>704000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>626300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>603300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>561600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>531300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>541100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>547400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>537400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>525900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>518200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>513700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>496100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>488900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>517400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>498100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>485700</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>18500</v>
+      </c>
+      <c r="F47" s="3">
         <v>27300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>30200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>32900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>34200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>36400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>17900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>35600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>34800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>32800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>32000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>26000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>26100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>28400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>36200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>33000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>36100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>39700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>38000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>41300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>43100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>44900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>45200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>41600</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>36800</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>34000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AE47" s="3">
         <v>35200</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>700200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>694800</v>
+      </c>
+      <c r="F48" s="3">
         <v>667400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>673700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>671700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>658900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>639700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>578900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>571700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>563000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>550400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>553500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>523100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>533400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>531000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>512700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>517200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>200500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>195700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>195300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>188100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>180900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>174900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>171500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>171100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>169100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>169100</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>170600</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>249000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>244400</v>
+      </c>
+      <c r="F49" s="3">
         <v>244000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>242100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>239600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>228600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>229500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>210800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>205800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>206200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>206200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>205500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>190200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>189700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>214600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>214600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>214300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>215800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>215000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>212600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>92400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>93400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>94300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>92600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>93200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>92700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>92600</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AE49" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,91 +4241,103 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>53800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>53900</v>
+      </c>
+      <c r="F52" s="3">
         <v>58700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>54200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>55000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>58700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>61700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>79300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>59100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>56100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>62600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>63100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>60500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>59400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>65400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>67200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>66400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>66300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>63700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>68800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>58900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>57300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>65700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>76100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>73800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>72800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>70900</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AE52" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1847600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1866300</v>
+      </c>
+      <c r="F54" s="3">
         <v>1846400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1857500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1919000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1932100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1929600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1852100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1809500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1786300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1740200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1650300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1503700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1434900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1442600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1392300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1362200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1059800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1061500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1052100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>906600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>893000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>893500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>881500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>868500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>888900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>864600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>823000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,153 +4578,161 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>98000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>107500</v>
+      </c>
+      <c r="F57" s="3">
         <v>86900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>106600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>123800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>104000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>117200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>120000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>118100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>94200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>96400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>89300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>61900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>55500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>68000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>71900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>62900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>65400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>72400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>75100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>62900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>62400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>66700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>53400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>47400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>51300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>51000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>46900</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
+      <c r="E58" s="3">
+        <v>100</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
-        <v>100</v>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
+      <c r="I58" s="3">
+        <v>100</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>50000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>75000</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>20200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>35200</v>
-      </c>
-      <c r="V58" s="3">
-        <v>200</v>
-      </c>
-      <c r="W58" s="3">
-        <v>200</v>
       </c>
       <c r="X58" s="3">
         <v>200</v>
@@ -4483,176 +4750,194 @@
         <v>200</v>
       </c>
       <c r="AC58" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>340000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>368300</v>
+      </c>
+      <c r="F59" s="3">
         <v>422500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>444100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>515200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>571500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>596200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>560600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>534200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>517500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>454500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>401100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>312600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>219600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>260400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>245700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>232800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>173100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>176300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>176100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>127700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>118700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>131200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>133300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>126900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>147200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>138900</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>116500</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>437900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>475900</v>
+      </c>
+      <c r="F60" s="3">
         <v>509400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>550700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>639100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>675700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>713500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>680500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>652300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>611700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>550800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>490300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>424500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>350200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>328500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>317600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>295900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>238600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>268900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>286400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>190800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>181300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>198100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>186900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>174500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>198700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>190100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>163600</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4660,32 +4945,32 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>400</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>500</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -4708,19 +4993,19 @@
         <v>0</v>
       </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>200</v>
-      </c>
-      <c r="X61" s="3">
-        <v>200</v>
-      </c>
-      <c r="Y61" s="3">
-        <v>300</v>
       </c>
       <c r="Z61" s="3">
         <v>200</v>
@@ -4729,96 +5014,108 @@
         <v>300</v>
       </c>
       <c r="AB61" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC61" s="3">
         <v>300</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE61" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>445700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>438100</v>
+      </c>
+      <c r="F62" s="3">
         <v>420500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>423000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>435800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>436400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>431600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>385900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>392700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>392000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>401300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>405400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>364200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>368400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>384600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>364000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>368200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>124200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>120700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>116400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>89000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>86200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>92300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>90000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>90800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>88800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>87200</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AE62" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>894300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>924400</v>
+      </c>
+      <c r="F66" s="3">
         <v>940300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>982900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1083700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1121400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1154200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1074800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1054000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1012800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>960700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>903600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>796200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>734100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>728700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>697100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>678900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>377300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>404200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>416300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>292400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>280800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>303600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>289300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>277200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>298900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>288400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>261300</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>557700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>545200</v>
+      </c>
+      <c r="F72" s="3">
         <v>518700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>495000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>456100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>431200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>395600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>398300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>379900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>399000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>401100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>378400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>346800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>343600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>353400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>337000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>329100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>325800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>330500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>309500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>296300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>291600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>271900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>279300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>280300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>284700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>272600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>258900</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>953300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>941800</v>
+      </c>
+      <c r="F76" s="3">
         <v>906100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>874700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>835300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>810700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>775400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>777300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>755500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>773500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>779400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>746800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>707600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>700800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>713900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>695200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>683300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>682500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>657300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>635800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>614200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>612200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>589900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>592300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>591300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>589900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>576200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>561700</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6387,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45136</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45045</v>
+      </c>
+      <c r="F80" s="2">
         <v>44954</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44863</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44772</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44583</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44492</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44401</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44310</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44219</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44128</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44037</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43946</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43855</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43764</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43673</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43582</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43491</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43400</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43309</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43218</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43127</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43036</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42945</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42854</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42763</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>34400</v>
+      </c>
+      <c r="F81" s="3">
         <v>31700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>46100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>38500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>57500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>28500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>39500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>24600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>37500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>29200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>34900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>4800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>2300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>34500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>22600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>18000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>1500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>28600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>19900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>18200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>34000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>12000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>22800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>11600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>27900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>23200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,43 +6607,45 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F83" s="3">
         <v>10100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>9700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>9500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>12600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>9400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>9200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>8600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>8400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>8300</v>
-      </c>
-      <c r="M83" s="3">
-        <v>8200</v>
-      </c>
-      <c r="N83" s="3">
-        <v>8100</v>
       </c>
       <c r="O83" s="3">
         <v>8200</v>
@@ -6257,28 +6654,28 @@
         <v>8100</v>
       </c>
       <c r="Q83" s="3">
+        <v>8200</v>
+      </c>
+      <c r="R83" s="3">
+        <v>8100</v>
+      </c>
+      <c r="S83" s="3">
         <v>7600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>7300</v>
-      </c>
-      <c r="S83" s="3">
-        <v>8000</v>
-      </c>
-      <c r="T83" s="3">
-        <v>7600</v>
       </c>
       <c r="U83" s="3">
         <v>8000</v>
       </c>
       <c r="V83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="W83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="X83" s="3">
         <v>7500</v>
-      </c>
-      <c r="W83" s="3">
-        <v>8100</v>
-      </c>
-      <c r="X83" s="3">
-        <v>7800</v>
       </c>
       <c r="Y83" s="3">
         <v>8100</v>
@@ -6287,16 +6684,22 @@
         <v>7800</v>
       </c>
       <c r="AA83" s="3">
+        <v>8100</v>
+      </c>
+      <c r="AB83" s="3">
         <v>7800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
+        <v>7800</v>
+      </c>
+      <c r="AD83" s="3">
         <v>7300</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AE83" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +7137,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>78100</v>
+      </c>
+      <c r="F89" s="3">
         <v>96100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-2200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>33100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>33800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>29800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>9300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>6200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>60100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>54100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>89400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>106300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>44500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>66100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>34400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>19300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>59300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>45400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>13900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>32200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>24600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>40000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>31700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>19500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>55000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>38900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,91 +7263,99 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-17000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-19400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-21000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-18000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-25300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-14000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-19300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-11200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-11300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-5600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-9800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-10600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-10700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-12300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-12700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-8800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-11100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-15900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-12200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-7800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-7200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-9100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-9600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-10600</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AE91" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,91 +7526,103 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-13800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-18200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-25900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-44600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-13000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-19500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-5000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-20100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-16800</v>
-      </c>
-      <c r="N94" s="3">
-        <v>1200</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-2800</v>
       </c>
       <c r="P94" s="3">
         <v>1200</v>
       </c>
       <c r="Q94" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="R94" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S94" s="3">
         <v>-14000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-18300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-8200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-12300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-87000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-15200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-10000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-8100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-8000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-29100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-7200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-23900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>-19700</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7196,82 +7663,88 @@
         <v>-7900</v>
       </c>
       <c r="E96" s="3">
-        <v>-7100</v>
+        <v>-7800</v>
       </c>
       <c r="F96" s="3">
-        <v>-7100</v>
+        <v>-7900</v>
       </c>
       <c r="G96" s="3">
         <v>-7100</v>
       </c>
       <c r="H96" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="J96" s="3">
         <v>-7200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-6600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-6800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-6800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-6500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-3200</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-6500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-6000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-6100</v>
       </c>
       <c r="T96" s="3">
         <v>-6100</v>
       </c>
       <c r="U96" s="3">
-        <v>-5700</v>
+        <v>-6100</v>
       </c>
       <c r="V96" s="3">
-        <v>-5600</v>
+        <v>-6100</v>
       </c>
       <c r="W96" s="3">
         <v>-5700</v>
       </c>
       <c r="X96" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-5300</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AB96" s="3">
         <v>-5300</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AC96" s="3">
         <v>-5400</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AD96" s="3">
         <v>-5400</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AE96" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,253 +8004,277 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F100" s="3">
         <v>-8000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-12100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-13800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-22300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-41600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-36100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-44700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-53200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-51100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-35300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>62700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-18500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-15000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-19900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-22500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-26300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>31700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-15600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-14800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-20300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-24600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-16500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-16500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-10300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F101" s="3">
         <v>1800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-1100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-1300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>1200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>1300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-2300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-1600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>1300</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
         <v>900</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>300</v>
       </c>
-      <c r="AB101" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>62600</v>
+      </c>
+      <c r="F102" s="3">
         <v>76200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-33500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-7400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>8900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-56600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-39600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-58500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>39600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>16700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>73200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>95300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>48700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>5900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-18200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>28200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>7700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-40700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>12900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-25300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>31500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>4800</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>-11600</v>
       </c>
     </row>
